--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="154">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -482,6 +482,491 @@
   </ns0:si>
   <ns0:si>
     <ns0:t xml:space="preserve">Price and volume preview charts (recharts) backed by preview API added.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy CRUD API endpoints implemented.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy parameter CRUD endpoints wired to strategies.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Tags/category/status/integration fields exposed in API models.</ns0:t>
+  </ns0:si>
+</ns0:sst>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
+  <ns0:si>
+    <ns0:t xml:space="preserve">sprint#</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">group#</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">group task description</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">task#</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">task description</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">remarks</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">status</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">deviations (from original plan)</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">G01</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend foundation: FastAPI skeleton, config, meta DB setup</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create FastAPI project skeleton with basic app factory and routing structure.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">implemented</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement configuration loader (env-based) for DB paths, Kite keys, and app settings.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G01_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Design and create sigmaqlab_meta.db schema migration for core tables (strategies, strategy_parameters, backtests).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G01_TB004</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Set up structured logging for backend (JSON or key-value format) with log levels and request logging.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">G02</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend foundation: React+TS+MUI scaffold and base layout</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G02_TF001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create React + TypeScript + Vite (or CRA) app and integrate Material UI.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement global layout: AppBar with SigmaQLab branding, navigation skeleton, and basic dark theme.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Set up React Router with routes for Dashboard, Strategies, Backtests, Data, Settings.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">G03</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Developer experience: tooling, linting, and pre-commit</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G03_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configure backend tooling: black, isort, mypy/ruff, and add pre-commit hooks.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G03_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Configure frontend tooling: ESLint, Prettier, TypeScript strict settings.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S01_G03_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add basic test harness for backend (pytest) with one sample test to validate CI wiring.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Data service: Kite/yfinance integration and price DB persistence</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Zerodha Kite client wrapper for historical OHLCV and holdings (read-only).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement optional yfinance/CSV loader as fallback data provider.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Design and create sigmaqlab_prices.db schema (price_bars table with indices).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB004</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Data Service functions to fetch, normalize, and persist OHLCV data from providers into price DB.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G01_TB005</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Expose FastAPI endpoint to trigger data fetch for given symbol, timeframe, and date range.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Data management UI: fetch, list, and preview data</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G02_TF001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create Data page with form to trigger data fetch via API (symbol, timeframe, date range).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">pending</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement table listing available symbol/timeframe combinations and coverage ranges.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S02_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add simple price &amp; volume preview chart for selected symbol/timeframe using chosen charting library.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy service: metadata and parameter storage</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Strategy CRUD endpoints (create, list, get, update, delete) in FastAPI.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Strategy Parameters CRUD endpoints and tie them to strategies.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G01_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add fields for tags, categories, statuses, and integration metadata in schema and API models.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy Library UI: list, details, and parameter sets</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G02_TF001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Strategies list view with filters (status, category, search) and pagination.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Strategy detail view showing description, tags, and recent backtests placeholder.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S03_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add parameter set management UI (list, create, edit, delete) for each strategy.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backtest engine: Backtrader integration and engine interface</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Define Strategy Engine interface and BacktestResult data models in backend.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Integrate Backtrader as primary engine and implement adapter that conforms to engine interface.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04_G01_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement one reference strategy in Backtrader (e.g., simple SMA crossover) wired to a Strategy record.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backtest execution: API endpoint and simple UI trigger</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04_G02_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement API to run a single backtest given strategy_id, params_id, symbols, timeframe, and date range.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add 'Run Backtest' modal/dialog in Strategy detail view to configure and submit a backtest.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S04_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create basic Backtests list page showing submitted runs, status, and key summary fields.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backtest results: persistence and metrics calculation</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Persist equity curve and trades from Backtrader runs into backtest_equity_points and backtest_trades tables.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Compute key metrics (total return, max drawdown, win rate, average win/loss, trade count) and store in metrics_json.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05_G01_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Expose API endpoints to fetch backtest summary, equity series, and trades for a given backtest_id.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backtest detail UI: equity chart, trades table, and parameters</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05_G02_TF001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Backtest detail page with summary metrics and equity curve chart (interactive).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add trades table with sorting/filtering, showing entry/exit, P&amp;L, and basic stats.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S05_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Optionally overlay buy/sell markers on price chart for one-symbol backtests.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Batch backtesting: grid search and parallel execution</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Extend backtest API to accept parameter grids or multiple parameter sets for batch execution.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement batch execution using ProcessPoolExecutor with isolation per run.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06_G01_TB003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Store batch group identifier to link multiple backtests that belong to one optimization run.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Optimization UI: batch backtests and parameter-performance views</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06_G02_TF001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create UI to configure and submit batch backtests (parameter ranges, symbol universe).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06_G02_TF002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement batch results view showing parameter combinations and key metrics in tabular form.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S06_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add simple visualization (e.g., heatmap or scatter plot) of parameters vs performance.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Portfolio snapshots: schema, API, and import from Kite</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G01_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Create portfolio_snapshots schema and CRUD endpoints for storing holdings snapshots.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G01_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement Data Service function to import current holdings from Kite into a portfolio snapshot.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G01_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Add Portfolio page UI to list snapshots and show holdings with core/tactical tagging controls.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Portfolio-aware backtests: starting portfolio and constraints</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G02_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Extend backtest engine config to accept a starting portfolio snapshot and core/tactical constraints.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G02_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Update metrics to report portfolio-level impact (realized + unrealized changes vs baseline).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G02_TF003</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Update Backtest configuration UI to allow selecting a portfolio snapshot when running a backtest.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Integration hooks: expose strategy summaries for SigmaTrader</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G03_TB001</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Implement read-only API endpoint to return latest backtest summary for a given strategy_id for external consumers (SigmaTrader).</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">S07_G03_TB002</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Ensure strategies can store and display linked SigmaTrader IDs and TradingView templates in the UI.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">FastAPI app factory and /health endpoint created.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Env-based Settings config using pydantic-settings added.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">sigmaqlab_meta.db schema for strategies/params/backtests wired via SQLAlchemy.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">JSON logging with level/timestamp and Uvicorn integration configured.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">React + TS + Vite + MUI frontend scaffolded.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Global dark theme and SigmaQLab layout (AppBar + nav) implemented.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">React Router routes for Dashboard/Strategies/Backtests/Data/Settings added.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Backend tooling (black, ruff, pytest, pre-commit) configured.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Frontend tooling (ESLint, Prettier, strict TS) configured.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Basic pytest harness with /health test in place.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Kite client wrapper for historical OHLCV implemented.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">yfinance and CSV data providers added as fallbacks.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">sigmaqlab_prices.db and price_bars schema created.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">DataService to fetch/normalise/persist OHLCV into prices DB implemented.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">/api/data/fetch endpoint added and covered by tests.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Data page fetch form wired to backend data fetch API.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Coverage summary table listing symbol/exchange/timeframe and coverage added.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Price and volume preview charts (recharts) backed by preview API added.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy CRUD API endpoints implemented.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy parameter CRUD endpoints wired to strategies.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Tags/category/status/integration fields exposed in API models.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1318,7 +1803,10 @@
         <ns0:v>59</ns0:v>
       </ns0:c>
       <ns0:c r="G20" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F20" s="1" t="s">
+        <ns0:v>154</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1826,10 @@
         <ns0:v>61</ns0:v>
       </ns0:c>
       <ns0:c r="G21" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F21" s="1" t="s">
+        <ns0:v>155</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,7 +1849,1133 @@
         <ns0:v>63</ns0:v>
       </ns0:c>
       <ns0:c r="G22" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F22" s="1" t="s">
+        <ns0:v>156</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A23" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="B23" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C23" s="1" t="s">
+        <ns0:v>64</ns0:v>
+      </ns0:c>
+      <ns0:c r="D23" s="1" t="s">
+        <ns0:v>65</ns0:v>
+      </ns0:c>
+      <ns0:c r="E23" s="1" t="s">
+        <ns0:v>66</ns0:v>
+      </ns0:c>
+      <ns0:c r="G23" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A24" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="B24" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C24" s="1" t="s">
+        <ns0:v>64</ns0:v>
+      </ns0:c>
+      <ns0:c r="D24" s="1" t="s">
+        <ns0:v>67</ns0:v>
+      </ns0:c>
+      <ns0:c r="E24" s="1" t="s">
+        <ns0:v>68</ns0:v>
+      </ns0:c>
+      <ns0:c r="G24" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A25" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="B25" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C25" s="1" t="s">
+        <ns0:v>64</ns0:v>
+      </ns0:c>
+      <ns0:c r="D25" s="1" t="s">
+        <ns0:v>69</ns0:v>
+      </ns0:c>
+      <ns0:c r="E25" s="1" t="s">
+        <ns0:v>70</ns0:v>
+      </ns0:c>
+      <ns0:c r="G25" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A26" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+      <ns0:c r="B26" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C26" s="1" t="s">
+        <ns0:v>72</ns0:v>
+      </ns0:c>
+      <ns0:c r="D26" s="1" t="s">
+        <ns0:v>73</ns0:v>
+      </ns0:c>
+      <ns0:c r="E26" s="1" t="s">
+        <ns0:v>74</ns0:v>
+      </ns0:c>
+      <ns0:c r="G26" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A27" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+      <ns0:c r="B27" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C27" s="1" t="s">
+        <ns0:v>72</ns0:v>
+      </ns0:c>
+      <ns0:c r="D27" s="1" t="s">
+        <ns0:v>75</ns0:v>
+      </ns0:c>
+      <ns0:c r="E27" s="1" t="s">
+        <ns0:v>76</ns0:v>
+      </ns0:c>
+      <ns0:c r="G27" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A28" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+      <ns0:c r="B28" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C28" s="1" t="s">
+        <ns0:v>72</ns0:v>
+      </ns0:c>
+      <ns0:c r="D28" s="1" t="s">
+        <ns0:v>77</ns0:v>
+      </ns0:c>
+      <ns0:c r="E28" s="1" t="s">
+        <ns0:v>78</ns0:v>
+      </ns0:c>
+      <ns0:c r="G28" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A29" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+      <ns0:c r="B29" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C29" s="1" t="s">
+        <ns0:v>79</ns0:v>
+      </ns0:c>
+      <ns0:c r="D29" s="1" t="s">
+        <ns0:v>80</ns0:v>
+      </ns0:c>
+      <ns0:c r="E29" s="1" t="s">
+        <ns0:v>81</ns0:v>
+      </ns0:c>
+      <ns0:c r="G29" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A30" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+      <ns0:c r="B30" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C30" s="1" t="s">
+        <ns0:v>79</ns0:v>
+      </ns0:c>
+      <ns0:c r="D30" s="1" t="s">
+        <ns0:v>82</ns0:v>
+      </ns0:c>
+      <ns0:c r="E30" s="1" t="s">
+        <ns0:v>83</ns0:v>
+      </ns0:c>
+      <ns0:c r="G30" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A31" s="1" t="s">
+        <ns0:v>71</ns0:v>
+      </ns0:c>
+      <ns0:c r="B31" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C31" s="1" t="s">
+        <ns0:v>79</ns0:v>
+      </ns0:c>
+      <ns0:c r="D31" s="1" t="s">
+        <ns0:v>84</ns0:v>
+      </ns0:c>
+      <ns0:c r="E31" s="1" t="s">
+        <ns0:v>85</ns0:v>
+      </ns0:c>
+      <ns0:c r="G31" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A32" s="1" t="s">
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="B32" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C32" s="1" t="s">
+        <ns0:v>87</ns0:v>
+      </ns0:c>
+      <ns0:c r="D32" s="1" t="s">
+        <ns0:v>88</ns0:v>
+      </ns0:c>
+      <ns0:c r="E32" s="1" t="s">
+        <ns0:v>89</ns0:v>
+      </ns0:c>
+      <ns0:c r="G32" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A33" s="1" t="s">
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="B33" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C33" s="1" t="s">
+        <ns0:v>87</ns0:v>
+      </ns0:c>
+      <ns0:c r="D33" s="1" t="s">
+        <ns0:v>90</ns0:v>
+      </ns0:c>
+      <ns0:c r="E33" s="1" t="s">
+        <ns0:v>91</ns0:v>
+      </ns0:c>
+      <ns0:c r="G33" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A34" s="1" t="s">
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="B34" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C34" s="1" t="s">
+        <ns0:v>87</ns0:v>
+      </ns0:c>
+      <ns0:c r="D34" s="1" t="s">
+        <ns0:v>92</ns0:v>
+      </ns0:c>
+      <ns0:c r="E34" s="1" t="s">
+        <ns0:v>93</ns0:v>
+      </ns0:c>
+      <ns0:c r="G34" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A35" s="1" t="s">
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="B35" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C35" s="1" t="s">
+        <ns0:v>94</ns0:v>
+      </ns0:c>
+      <ns0:c r="D35" s="1" t="s">
+        <ns0:v>95</ns0:v>
+      </ns0:c>
+      <ns0:c r="E35" s="1" t="s">
+        <ns0:v>96</ns0:v>
+      </ns0:c>
+      <ns0:c r="G35" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A36" s="1" t="s">
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="B36" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C36" s="1" t="s">
+        <ns0:v>94</ns0:v>
+      </ns0:c>
+      <ns0:c r="D36" s="1" t="s">
+        <ns0:v>97</ns0:v>
+      </ns0:c>
+      <ns0:c r="E36" s="1" t="s">
+        <ns0:v>98</ns0:v>
+      </ns0:c>
+      <ns0:c r="G36" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A37" s="1" t="s">
+        <ns0:v>86</ns0:v>
+      </ns0:c>
+      <ns0:c r="B37" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C37" s="1" t="s">
+        <ns0:v>94</ns0:v>
+      </ns0:c>
+      <ns0:c r="D37" s="1" t="s">
+        <ns0:v>99</ns0:v>
+      </ns0:c>
+      <ns0:c r="E37" s="1" t="s">
+        <ns0:v>100</ns0:v>
+      </ns0:c>
+      <ns0:c r="G37" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A38" s="1" t="s">
+        <ns0:v>101</ns0:v>
+      </ns0:c>
+      <ns0:c r="B38" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C38" s="1" t="s">
+        <ns0:v>102</ns0:v>
+      </ns0:c>
+      <ns0:c r="D38" s="1" t="s">
+        <ns0:v>103</ns0:v>
+      </ns0:c>
+      <ns0:c r="E38" s="1" t="s">
+        <ns0:v>104</ns0:v>
+      </ns0:c>
+      <ns0:c r="G38" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A39" s="1" t="s">
+        <ns0:v>101</ns0:v>
+      </ns0:c>
+      <ns0:c r="B39" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C39" s="1" t="s">
+        <ns0:v>102</ns0:v>
+      </ns0:c>
+      <ns0:c r="D39" s="1" t="s">
+        <ns0:v>105</ns0:v>
+      </ns0:c>
+      <ns0:c r="E39" s="1" t="s">
+        <ns0:v>106</ns0:v>
+      </ns0:c>
+      <ns0:c r="G39" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A40" s="1" t="s">
+        <ns0:v>101</ns0:v>
+      </ns0:c>
+      <ns0:c r="B40" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C40" s="1" t="s">
+        <ns0:v>102</ns0:v>
+      </ns0:c>
+      <ns0:c r="D40" s="1" t="s">
+        <ns0:v>107</ns0:v>
+      </ns0:c>
+      <ns0:c r="E40" s="1" t="s">
+        <ns0:v>108</ns0:v>
+      </ns0:c>
+      <ns0:c r="G40" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A41" s="1" t="s">
+        <ns0:v>101</ns0:v>
+      </ns0:c>
+      <ns0:c r="B41" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C41" s="1" t="s">
+        <ns0:v>109</ns0:v>
+      </ns0:c>
+      <ns0:c r="D41" s="1" t="s">
+        <ns0:v>110</ns0:v>
+      </ns0:c>
+      <ns0:c r="E41" s="1" t="s">
+        <ns0:v>111</ns0:v>
+      </ns0:c>
+      <ns0:c r="G41" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A42" s="1" t="s">
+        <ns0:v>101</ns0:v>
+      </ns0:c>
+      <ns0:c r="B42" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C42" s="1" t="s">
+        <ns0:v>109</ns0:v>
+      </ns0:c>
+      <ns0:c r="D42" s="1" t="s">
+        <ns0:v>112</ns0:v>
+      </ns0:c>
+      <ns0:c r="E42" s="1" t="s">
+        <ns0:v>113</ns0:v>
+      </ns0:c>
+      <ns0:c r="G42" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A43" s="1" t="s">
+        <ns0:v>101</ns0:v>
+      </ns0:c>
+      <ns0:c r="B43" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C43" s="1" t="s">
+        <ns0:v>109</ns0:v>
+      </ns0:c>
+      <ns0:c r="D43" s="1" t="s">
+        <ns0:v>114</ns0:v>
+      </ns0:c>
+      <ns0:c r="E43" s="1" t="s">
+        <ns0:v>115</ns0:v>
+      </ns0:c>
+      <ns0:c r="G43" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A44" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B44" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C44" s="1" t="s">
+        <ns0:v>117</ns0:v>
+      </ns0:c>
+      <ns0:c r="D44" s="1" t="s">
+        <ns0:v>118</ns0:v>
+      </ns0:c>
+      <ns0:c r="E44" s="1" t="s">
+        <ns0:v>119</ns0:v>
+      </ns0:c>
+      <ns0:c r="G44" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A45" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B45" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C45" s="1" t="s">
+        <ns0:v>117</ns0:v>
+      </ns0:c>
+      <ns0:c r="D45" s="1" t="s">
+        <ns0:v>120</ns0:v>
+      </ns0:c>
+      <ns0:c r="E45" s="1" t="s">
+        <ns0:v>121</ns0:v>
+      </ns0:c>
+      <ns0:c r="G45" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A46" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B46" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C46" s="1" t="s">
+        <ns0:v>117</ns0:v>
+      </ns0:c>
+      <ns0:c r="D46" s="1" t="s">
+        <ns0:v>122</ns0:v>
+      </ns0:c>
+      <ns0:c r="E46" s="1" t="s">
+        <ns0:v>123</ns0:v>
+      </ns0:c>
+      <ns0:c r="G46" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A47" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B47" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C47" s="1" t="s">
+        <ns0:v>124</ns0:v>
+      </ns0:c>
+      <ns0:c r="D47" s="1" t="s">
+        <ns0:v>125</ns0:v>
+      </ns0:c>
+      <ns0:c r="E47" s="1" t="s">
+        <ns0:v>126</ns0:v>
+      </ns0:c>
+      <ns0:c r="G47" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A48" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B48" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C48" s="1" t="s">
+        <ns0:v>124</ns0:v>
+      </ns0:c>
+      <ns0:c r="D48" s="1" t="s">
+        <ns0:v>127</ns0:v>
+      </ns0:c>
+      <ns0:c r="E48" s="1" t="s">
+        <ns0:v>128</ns0:v>
+      </ns0:c>
+      <ns0:c r="G48" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A49" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B49" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C49" s="1" t="s">
+        <ns0:v>124</ns0:v>
+      </ns0:c>
+      <ns0:c r="D49" s="1" t="s">
+        <ns0:v>129</ns0:v>
+      </ns0:c>
+      <ns0:c r="E49" s="1" t="s">
+        <ns0:v>130</ns0:v>
+      </ns0:c>
+      <ns0:c r="G49" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A50" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B50" s="1" t="s">
+        <ns0:v>28</ns0:v>
+      </ns0:c>
+      <ns0:c r="C50" s="1" t="s">
+        <ns0:v>131</ns0:v>
+      </ns0:c>
+      <ns0:c r="D50" s="1" t="s">
+        <ns0:v>132</ns0:v>
+      </ns0:c>
+      <ns0:c r="E50" s="1" t="s">
+        <ns0:v>133</ns0:v>
+      </ns0:c>
+      <ns0:c r="G50" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A51" s="1" t="s">
+        <ns0:v>116</ns0:v>
+      </ns0:c>
+      <ns0:c r="B51" s="1" t="s">
+        <ns0:v>28</ns0:v>
+      </ns0:c>
+      <ns0:c r="C51" s="1" t="s">
+        <ns0:v>131</ns0:v>
+      </ns0:c>
+      <ns0:c r="D51" s="1" t="s">
+        <ns0:v>134</ns0:v>
+      </ns0:c>
+      <ns0:c r="E51" s="1" t="s">
+        <ns0:v>135</ns0:v>
+      </ns0:c>
+      <ns0:c r="G51" s="1" t="s">
+        <ns0:v>51</ns0:v>
+      </ns0:c>
+    </ns0:row>
+  </ns0:sheetData>
+  <ns0:printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <ns0:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <ns0:pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <ns0:headerFooter differentFirst="false" differentOddEven="false">
+    <ns0:oddHeader/>
+    <ns0:oddFooter/>
+  </ns0:headerFooter>
+</ns0:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <ns0:sheetPr filterMode="false">
+    <ns0:pageSetUpPr fitToPage="false"/>
+  </ns0:sheetPr>
+  <ns0:dimension ref="A1:H51"/>
+  <ns0:sheetViews>
+    <ns0:sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <ns0:selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </ns0:sheetView>
+  </ns0:sheetViews>
+  <ns0:sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <ns0:cols>
+    <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.68"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.79"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.33"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="97.79"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="63.58"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.33"/>
+    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="59.26"/>
+    <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="8.68"/>
+  </ns0:cols>
+  <ns0:sheetData>
+    <ns0:row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A1" s="2" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+      <ns0:c r="B1" s="2" t="s">
+        <ns0:v>1</ns0:v>
+      </ns0:c>
+      <ns0:c r="C1" s="2" t="s">
+        <ns0:v>2</ns0:v>
+      </ns0:c>
+      <ns0:c r="D1" s="2" t="s">
+        <ns0:v>3</ns0:v>
+      </ns0:c>
+      <ns0:c r="E1" s="2" t="s">
+        <ns0:v>4</ns0:v>
+      </ns0:c>
+      <ns0:c r="F1" s="2" t="s">
+        <ns0:v>5</ns0:v>
+      </ns0:c>
+      <ns0:c r="G1" s="2" t="s">
+        <ns0:v>6</ns0:v>
+      </ns0:c>
+      <ns0:c r="H1" s="2" t="s">
+        <ns0:v>7</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A2" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B2" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C2" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="D2" s="1" t="s">
+        <ns0:v>11</ns0:v>
+      </ns0:c>
+      <ns0:c r="E2" s="1" t="s">
+        <ns0:v>12</ns0:v>
+      </ns0:c>
+      <ns0:c r="G2" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F2" s="1" t="s">
+        <ns0:v>136</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A3" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B3" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C3" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="D3" s="1" t="s">
+        <ns0:v>14</ns0:v>
+      </ns0:c>
+      <ns0:c r="E3" s="1" t="s">
+        <ns0:v>15</ns0:v>
+      </ns0:c>
+      <ns0:c r="G3" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F3" s="1" t="s">
+        <ns0:v>137</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A4" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B4" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C4" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="D4" s="1" t="s">
+        <ns0:v>16</ns0:v>
+      </ns0:c>
+      <ns0:c r="E4" s="1" t="s">
+        <ns0:v>17</ns0:v>
+      </ns0:c>
+      <ns0:c r="G4" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F4" s="1" t="s">
+        <ns0:v>138</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A5" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B5" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C5" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="D5" s="1" t="s">
+        <ns0:v>18</ns0:v>
+      </ns0:c>
+      <ns0:c r="E5" s="1" t="s">
+        <ns0:v>19</ns0:v>
+      </ns0:c>
+      <ns0:c r="G5" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F5" s="1" t="s">
+        <ns0:v>139</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A6" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B6" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C6" s="1" t="s">
+        <ns0:v>21</ns0:v>
+      </ns0:c>
+      <ns0:c r="D6" s="1" t="s">
+        <ns0:v>22</ns0:v>
+      </ns0:c>
+      <ns0:c r="E6" s="1" t="s">
+        <ns0:v>23</ns0:v>
+      </ns0:c>
+      <ns0:c r="G6" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F6" s="1" t="s">
+        <ns0:v>140</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A7" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B7" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C7" s="1" t="s">
+        <ns0:v>21</ns0:v>
+      </ns0:c>
+      <ns0:c r="D7" s="1" t="s">
+        <ns0:v>24</ns0:v>
+      </ns0:c>
+      <ns0:c r="E7" s="1" t="s">
+        <ns0:v>25</ns0:v>
+      </ns0:c>
+      <ns0:c r="G7" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F7" s="1" t="s">
+        <ns0:v>141</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A8" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B8" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C8" s="1" t="s">
+        <ns0:v>21</ns0:v>
+      </ns0:c>
+      <ns0:c r="D8" s="1" t="s">
+        <ns0:v>26</ns0:v>
+      </ns0:c>
+      <ns0:c r="E8" s="1" t="s">
+        <ns0:v>27</ns0:v>
+      </ns0:c>
+      <ns0:c r="G8" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F8" s="1" t="s">
+        <ns0:v>142</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A9" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B9" s="1" t="s">
+        <ns0:v>28</ns0:v>
+      </ns0:c>
+      <ns0:c r="C9" s="1" t="s">
+        <ns0:v>29</ns0:v>
+      </ns0:c>
+      <ns0:c r="D9" s="1" t="s">
+        <ns0:v>30</ns0:v>
+      </ns0:c>
+      <ns0:c r="E9" s="1" t="s">
+        <ns0:v>31</ns0:v>
+      </ns0:c>
+      <ns0:c r="G9" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F9" s="1" t="s">
+        <ns0:v>143</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A10" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B10" s="1" t="s">
+        <ns0:v>28</ns0:v>
+      </ns0:c>
+      <ns0:c r="C10" s="1" t="s">
+        <ns0:v>29</ns0:v>
+      </ns0:c>
+      <ns0:c r="D10" s="1" t="s">
+        <ns0:v>32</ns0:v>
+      </ns0:c>
+      <ns0:c r="E10" s="1" t="s">
+        <ns0:v>33</ns0:v>
+      </ns0:c>
+      <ns0:c r="G10" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F10" s="1" t="s">
+        <ns0:v>144</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A11" s="1" t="s">
+        <ns0:v>8</ns0:v>
+      </ns0:c>
+      <ns0:c r="B11" s="1" t="s">
+        <ns0:v>28</ns0:v>
+      </ns0:c>
+      <ns0:c r="C11" s="1" t="s">
+        <ns0:v>29</ns0:v>
+      </ns0:c>
+      <ns0:c r="D11" s="1" t="s">
+        <ns0:v>34</ns0:v>
+      </ns0:c>
+      <ns0:c r="E11" s="1" t="s">
+        <ns0:v>35</ns0:v>
+      </ns0:c>
+      <ns0:c r="G11" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F11" s="1" t="s">
+        <ns0:v>145</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A12" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B12" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C12" s="1" t="s">
+        <ns0:v>37</ns0:v>
+      </ns0:c>
+      <ns0:c r="D12" s="1" t="s">
+        <ns0:v>38</ns0:v>
+      </ns0:c>
+      <ns0:c r="E12" s="1" t="s">
+        <ns0:v>39</ns0:v>
+      </ns0:c>
+      <ns0:c r="G12" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F12" s="1" t="s">
+        <ns0:v>146</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A13" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B13" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C13" s="1" t="s">
+        <ns0:v>37</ns0:v>
+      </ns0:c>
+      <ns0:c r="D13" s="1" t="s">
+        <ns0:v>40</ns0:v>
+      </ns0:c>
+      <ns0:c r="E13" s="1" t="s">
+        <ns0:v>41</ns0:v>
+      </ns0:c>
+      <ns0:c r="G13" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F13" s="1" t="s">
+        <ns0:v>147</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A14" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B14" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C14" s="1" t="s">
+        <ns0:v>37</ns0:v>
+      </ns0:c>
+      <ns0:c r="D14" s="1" t="s">
+        <ns0:v>42</ns0:v>
+      </ns0:c>
+      <ns0:c r="E14" s="1" t="s">
+        <ns0:v>43</ns0:v>
+      </ns0:c>
+      <ns0:c r="G14" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F14" s="1" t="s">
+        <ns0:v>148</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A15" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B15" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C15" s="1" t="s">
+        <ns0:v>37</ns0:v>
+      </ns0:c>
+      <ns0:c r="D15" s="1" t="s">
+        <ns0:v>44</ns0:v>
+      </ns0:c>
+      <ns0:c r="E15" s="1" t="s">
+        <ns0:v>45</ns0:v>
+      </ns0:c>
+      <ns0:c r="G15" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F15" s="1" t="s">
+        <ns0:v>149</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A16" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B16" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C16" s="1" t="s">
+        <ns0:v>37</ns0:v>
+      </ns0:c>
+      <ns0:c r="D16" s="1" t="s">
+        <ns0:v>46</ns0:v>
+      </ns0:c>
+      <ns0:c r="E16" s="1" t="s">
+        <ns0:v>47</ns0:v>
+      </ns0:c>
+      <ns0:c r="G16" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F16" s="1" t="s">
+        <ns0:v>150</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A17" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B17" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C17" s="1" t="s">
+        <ns0:v>48</ns0:v>
+      </ns0:c>
+      <ns0:c r="D17" s="1" t="s">
+        <ns0:v>49</ns0:v>
+      </ns0:c>
+      <ns0:c r="E17" s="1" t="s">
+        <ns0:v>50</ns0:v>
+      </ns0:c>
+      <ns0:c r="G17" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F17" s="1" t="s">
+        <ns0:v>151</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A18" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B18" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C18" s="1" t="s">
+        <ns0:v>48</ns0:v>
+      </ns0:c>
+      <ns0:c r="D18" s="1" t="s">
+        <ns0:v>52</ns0:v>
+      </ns0:c>
+      <ns0:c r="E18" s="1" t="s">
+        <ns0:v>53</ns0:v>
+      </ns0:c>
+      <ns0:c r="G18" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F18" s="1" t="s">
+        <ns0:v>152</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A19" s="1" t="s">
+        <ns0:v>36</ns0:v>
+      </ns0:c>
+      <ns0:c r="B19" s="1" t="s">
+        <ns0:v>20</ns0:v>
+      </ns0:c>
+      <ns0:c r="C19" s="1" t="s">
+        <ns0:v>48</ns0:v>
+      </ns0:c>
+      <ns0:c r="D19" s="1" t="s">
+        <ns0:v>54</ns0:v>
+      </ns0:c>
+      <ns0:c r="E19" s="1" t="s">
+        <ns0:v>55</ns0:v>
+      </ns0:c>
+      <ns0:c r="G19" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F19" s="1" t="s">
+        <ns0:v>153</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A20" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="B20" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C20" s="1" t="s">
+        <ns0:v>57</ns0:v>
+      </ns0:c>
+      <ns0:c r="D20" s="1" t="s">
+        <ns0:v>58</ns0:v>
+      </ns0:c>
+      <ns0:c r="E20" s="1" t="s">
+        <ns0:v>59</ns0:v>
+      </ns0:c>
+      <ns0:c r="G20" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F20" s="1" t="s">
+        <ns0:v>154</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A21" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="B21" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C21" s="1" t="s">
+        <ns0:v>57</ns0:v>
+      </ns0:c>
+      <ns0:c r="D21" s="1" t="s">
+        <ns0:v>60</ns0:v>
+      </ns0:c>
+      <ns0:c r="E21" s="1" t="s">
+        <ns0:v>61</ns0:v>
+      </ns0:c>
+      <ns0:c r="G21" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F21" s="1" t="s">
+        <ns0:v>155</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <ns0:c r="A22" s="1" t="s">
+        <ns0:v>56</ns0:v>
+      </ns0:c>
+      <ns0:c r="B22" s="1" t="s">
+        <ns0:v>9</ns0:v>
+      </ns0:c>
+      <ns0:c r="C22" s="1" t="s">
+        <ns0:v>57</ns0:v>
+      </ns0:c>
+      <ns0:c r="D22" s="1" t="s">
+        <ns0:v>62</ns0:v>
+      </ns0:c>
+      <ns0:c r="E22" s="1" t="s">
+        <ns0:v>63</ns0:v>
+      </ns0:c>
+      <ns0:c r="G22" s="1" t="s">
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F22" s="1" t="s">
+        <ns0:v>156</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
+<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
   <ns0:si>
     <ns0:t xml:space="preserve">sprint#</ns0:t>
   </ns0:si>
@@ -492,481 +492,14 @@
   <ns0:si>
     <ns0:t xml:space="preserve">Tags/category/status/integration fields exposed in API models.</ns0:t>
   </ns0:si>
-</ns0:sst>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:sst xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
-  <ns0:si>
-    <ns0:t xml:space="preserve">sprint#</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">group#</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">group task description</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">task#</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">task description</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">remarks</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">status</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">deviations (from original plan)</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">G01</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backend foundation: FastAPI skeleton, config, meta DB setup</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create FastAPI project skeleton with basic app factory and routing structure.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">implemented</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement configuration loader (env-based) for DB paths, Kite keys, and app settings.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G01_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Design and create sigmaqlab_meta.db schema migration for core tables (strategies, strategy_parameters, backtests).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G01_TB004</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Set up structured logging for backend (JSON or key-value format) with log levels and request logging.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">G02</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Frontend foundation: React+TS+MUI scaffold and base layout</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G02_TF001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create React + TypeScript + Vite (or CRA) app and integrate Material UI.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement global layout: AppBar with SigmaQLab branding, navigation skeleton, and basic dark theme.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Set up React Router with routes for Dashboard, Strategies, Backtests, Data, Settings.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">G03</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Developer experience: tooling, linting, and pre-commit</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G03_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Configure backend tooling: black, isort, mypy/ruff, and add pre-commit hooks.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G03_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Configure frontend tooling: ESLint, Prettier, TypeScript strict settings.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S01_G03_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add basic test harness for backend (pytest) with one sample test to validate CI wiring.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Data service: Kite/yfinance integration and price DB persistence</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Zerodha Kite client wrapper for historical OHLCV and holdings (read-only).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement optional yfinance/CSV loader as fallback data provider.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Design and create sigmaqlab_prices.db schema (price_bars table with indices).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB004</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Data Service functions to fetch, normalize, and persist OHLCV data from providers into price DB.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G01_TB005</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Expose FastAPI endpoint to trigger data fetch for given symbol, timeframe, and date range.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Data management UI: fetch, list, and preview data</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G02_TF001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create Data page with form to trigger data fetch via API (symbol, timeframe, date range).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">pending</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement table listing available symbol/timeframe combinations and coverage ranges.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S02_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add simple price &amp; volume preview chart for selected symbol/timeframe using chosen charting library.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Strategy service: metadata and parameter storage</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Strategy CRUD endpoints (create, list, get, update, delete) in FastAPI.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Strategy Parameters CRUD endpoints and tie them to strategies.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G01_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add fields for tags, categories, statuses, and integration metadata in schema and API models.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Strategy Library UI: list, details, and parameter sets</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G02_TF001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Strategies list view with filters (status, category, search) and pagination.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Strategy detail view showing description, tags, and recent backtests placeholder.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S03_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add parameter set management UI (list, create, edit, delete) for each strategy.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backtest engine: Backtrader integration and engine interface</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Define Strategy Engine interface and BacktestResult data models in backend.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Integrate Backtrader as primary engine and implement adapter that conforms to engine interface.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04_G01_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement one reference strategy in Backtrader (e.g., simple SMA crossover) wired to a Strategy record.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backtest execution: API endpoint and simple UI trigger</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04_G02_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement API to run a single backtest given strategy_id, params_id, symbols, timeframe, and date range.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add 'Run Backtest' modal/dialog in Strategy detail view to configure and submit a backtest.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S04_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create basic Backtests list page showing submitted runs, status, and key summary fields.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backtest results: persistence and metrics calculation</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Persist equity curve and trades from Backtrader runs into backtest_equity_points and backtest_trades tables.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Compute key metrics (total return, max drawdown, win rate, average win/loss, trade count) and store in metrics_json.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05_G01_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Expose API endpoints to fetch backtest summary, equity series, and trades for a given backtest_id.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backtest detail UI: equity chart, trades table, and parameters</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05_G02_TF001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Backtest detail page with summary metrics and equity curve chart (interactive).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add trades table with sorting/filtering, showing entry/exit, P&amp;L, and basic stats.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S05_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Optionally overlay buy/sell markers on price chart for one-symbol backtests.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Batch backtesting: grid search and parallel execution</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Extend backtest API to accept parameter grids or multiple parameter sets for batch execution.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement batch execution using ProcessPoolExecutor with isolation per run.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06_G01_TB003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Store batch group identifier to link multiple backtests that belong to one optimization run.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Optimization UI: batch backtests and parameter-performance views</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06_G02_TF001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create UI to configure and submit batch backtests (parameter ranges, symbol universe).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06_G02_TF002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement batch results view showing parameter combinations and key metrics in tabular form.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S06_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add simple visualization (e.g., heatmap or scatter plot) of parameters vs performance.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Portfolio snapshots: schema, API, and import from Kite</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G01_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Create portfolio_snapshots schema and CRUD endpoints for storing holdings snapshots.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G01_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement Data Service function to import current holdings from Kite into a portfolio snapshot.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G01_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Add Portfolio page UI to list snapshots and show holdings with core/tactical tagging controls.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Portfolio-aware backtests: starting portfolio and constraints</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G02_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Extend backtest engine config to accept a starting portfolio snapshot and core/tactical constraints.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G02_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Update metrics to report portfolio-level impact (realized + unrealized changes vs baseline).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G02_TF003</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Update Backtest configuration UI to allow selecting a portfolio snapshot when running a backtest.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Integration hooks: expose strategy summaries for SigmaTrader</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G03_TB001</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Implement read-only API endpoint to return latest backtest summary for a given strategy_id for external consumers (SigmaTrader).</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">S07_G03_TB002</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Ensure strategies can store and display linked SigmaTrader IDs and TradingView templates in the UI.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">FastAPI app factory and /health endpoint created.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Env-based Settings config using pydantic-settings added.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">sigmaqlab_meta.db schema for strategies/params/backtests wired via SQLAlchemy.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">JSON logging with level/timestamp and Uvicorn integration configured.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">React + TS + Vite + MUI frontend scaffolded.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Global dark theme and SigmaQLab layout (AppBar + nav) implemented.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">React Router routes for Dashboard/Strategies/Backtests/Data/Settings added.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Backend tooling (black, ruff, pytest, pre-commit) configured.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Frontend tooling (ESLint, Prettier, strict TS) configured.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Basic pytest harness with /health test in place.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Kite client wrapper for historical OHLCV implemented.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">yfinance and CSV data providers added as fallbacks.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">sigmaqlab_prices.db and price_bars schema created.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">DataService to fetch/normalise/persist OHLCV into prices DB implemented.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">/api/data/fetch endpoint added and covered by tests.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Data page fetch form wired to backend data fetch API.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Coverage summary table listing symbol/exchange/timeframe and coverage added.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Price and volume preview charts (recharts) backed by preview API added.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Strategy CRUD API endpoints implemented.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Strategy parameter CRUD endpoints wired to strategies.</ns0:t>
-  </ns0:si>
-  <ns0:si>
-    <ns0:t xml:space="preserve">Tags/category/status/integration fields exposed in API models.</ns0:t>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy list view in React (table) with edit/delete implemented.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Strategy detail panel with status/tags/integration fields added.</ns0:t>
+  </ns0:si>
+  <ns0:si>
+    <ns0:t xml:space="preserve">Parameter sets table and JSON-based create/edit/delete wired to API.</ns0:t>
   </ns0:si>
 </ns0:sst>
 </file>
@@ -1872,7 +1405,10 @@
         <ns0:v>66</ns0:v>
       </ns0:c>
       <ns0:c r="G23" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F23" s="1" t="s">
+        <ns0:v>157</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,7 +1428,10 @@
         <ns0:v>68</ns0:v>
       </ns0:c>
       <ns0:c r="G24" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F24" s="1" t="s">
+        <ns0:v>158</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,1130 +1451,10 @@
         <ns0:v>70</ns0:v>
       </ns0:c>
       <ns0:c r="G25" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A26" s="1" t="s">
-        <ns0:v>71</ns0:v>
-      </ns0:c>
-      <ns0:c r="B26" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C26" s="1" t="s">
-        <ns0:v>72</ns0:v>
-      </ns0:c>
-      <ns0:c r="D26" s="1" t="s">
-        <ns0:v>73</ns0:v>
-      </ns0:c>
-      <ns0:c r="E26" s="1" t="s">
-        <ns0:v>74</ns0:v>
-      </ns0:c>
-      <ns0:c r="G26" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A27" s="1" t="s">
-        <ns0:v>71</ns0:v>
-      </ns0:c>
-      <ns0:c r="B27" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C27" s="1" t="s">
-        <ns0:v>72</ns0:v>
-      </ns0:c>
-      <ns0:c r="D27" s="1" t="s">
-        <ns0:v>75</ns0:v>
-      </ns0:c>
-      <ns0:c r="E27" s="1" t="s">
-        <ns0:v>76</ns0:v>
-      </ns0:c>
-      <ns0:c r="G27" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A28" s="1" t="s">
-        <ns0:v>71</ns0:v>
-      </ns0:c>
-      <ns0:c r="B28" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C28" s="1" t="s">
-        <ns0:v>72</ns0:v>
-      </ns0:c>
-      <ns0:c r="D28" s="1" t="s">
-        <ns0:v>77</ns0:v>
-      </ns0:c>
-      <ns0:c r="E28" s="1" t="s">
-        <ns0:v>78</ns0:v>
-      </ns0:c>
-      <ns0:c r="G28" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A29" s="1" t="s">
-        <ns0:v>71</ns0:v>
-      </ns0:c>
-      <ns0:c r="B29" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C29" s="1" t="s">
-        <ns0:v>79</ns0:v>
-      </ns0:c>
-      <ns0:c r="D29" s="1" t="s">
-        <ns0:v>80</ns0:v>
-      </ns0:c>
-      <ns0:c r="E29" s="1" t="s">
-        <ns0:v>81</ns0:v>
-      </ns0:c>
-      <ns0:c r="G29" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A30" s="1" t="s">
-        <ns0:v>71</ns0:v>
-      </ns0:c>
-      <ns0:c r="B30" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C30" s="1" t="s">
-        <ns0:v>79</ns0:v>
-      </ns0:c>
-      <ns0:c r="D30" s="1" t="s">
-        <ns0:v>82</ns0:v>
-      </ns0:c>
-      <ns0:c r="E30" s="1" t="s">
-        <ns0:v>83</ns0:v>
-      </ns0:c>
-      <ns0:c r="G30" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A31" s="1" t="s">
-        <ns0:v>71</ns0:v>
-      </ns0:c>
-      <ns0:c r="B31" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C31" s="1" t="s">
-        <ns0:v>79</ns0:v>
-      </ns0:c>
-      <ns0:c r="D31" s="1" t="s">
-        <ns0:v>84</ns0:v>
-      </ns0:c>
-      <ns0:c r="E31" s="1" t="s">
-        <ns0:v>85</ns0:v>
-      </ns0:c>
-      <ns0:c r="G31" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A32" s="1" t="s">
-        <ns0:v>86</ns0:v>
-      </ns0:c>
-      <ns0:c r="B32" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C32" s="1" t="s">
-        <ns0:v>87</ns0:v>
-      </ns0:c>
-      <ns0:c r="D32" s="1" t="s">
-        <ns0:v>88</ns0:v>
-      </ns0:c>
-      <ns0:c r="E32" s="1" t="s">
-        <ns0:v>89</ns0:v>
-      </ns0:c>
-      <ns0:c r="G32" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A33" s="1" t="s">
-        <ns0:v>86</ns0:v>
-      </ns0:c>
-      <ns0:c r="B33" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C33" s="1" t="s">
-        <ns0:v>87</ns0:v>
-      </ns0:c>
-      <ns0:c r="D33" s="1" t="s">
-        <ns0:v>90</ns0:v>
-      </ns0:c>
-      <ns0:c r="E33" s="1" t="s">
-        <ns0:v>91</ns0:v>
-      </ns0:c>
-      <ns0:c r="G33" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A34" s="1" t="s">
-        <ns0:v>86</ns0:v>
-      </ns0:c>
-      <ns0:c r="B34" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C34" s="1" t="s">
-        <ns0:v>87</ns0:v>
-      </ns0:c>
-      <ns0:c r="D34" s="1" t="s">
-        <ns0:v>92</ns0:v>
-      </ns0:c>
-      <ns0:c r="E34" s="1" t="s">
-        <ns0:v>93</ns0:v>
-      </ns0:c>
-      <ns0:c r="G34" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A35" s="1" t="s">
-        <ns0:v>86</ns0:v>
-      </ns0:c>
-      <ns0:c r="B35" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C35" s="1" t="s">
-        <ns0:v>94</ns0:v>
-      </ns0:c>
-      <ns0:c r="D35" s="1" t="s">
-        <ns0:v>95</ns0:v>
-      </ns0:c>
-      <ns0:c r="E35" s="1" t="s">
-        <ns0:v>96</ns0:v>
-      </ns0:c>
-      <ns0:c r="G35" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A36" s="1" t="s">
-        <ns0:v>86</ns0:v>
-      </ns0:c>
-      <ns0:c r="B36" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C36" s="1" t="s">
-        <ns0:v>94</ns0:v>
-      </ns0:c>
-      <ns0:c r="D36" s="1" t="s">
-        <ns0:v>97</ns0:v>
-      </ns0:c>
-      <ns0:c r="E36" s="1" t="s">
-        <ns0:v>98</ns0:v>
-      </ns0:c>
-      <ns0:c r="G36" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A37" s="1" t="s">
-        <ns0:v>86</ns0:v>
-      </ns0:c>
-      <ns0:c r="B37" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C37" s="1" t="s">
-        <ns0:v>94</ns0:v>
-      </ns0:c>
-      <ns0:c r="D37" s="1" t="s">
-        <ns0:v>99</ns0:v>
-      </ns0:c>
-      <ns0:c r="E37" s="1" t="s">
-        <ns0:v>100</ns0:v>
-      </ns0:c>
-      <ns0:c r="G37" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A38" s="1" t="s">
-        <ns0:v>101</ns0:v>
-      </ns0:c>
-      <ns0:c r="B38" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C38" s="1" t="s">
-        <ns0:v>102</ns0:v>
-      </ns0:c>
-      <ns0:c r="D38" s="1" t="s">
-        <ns0:v>103</ns0:v>
-      </ns0:c>
-      <ns0:c r="E38" s="1" t="s">
-        <ns0:v>104</ns0:v>
-      </ns0:c>
-      <ns0:c r="G38" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A39" s="1" t="s">
-        <ns0:v>101</ns0:v>
-      </ns0:c>
-      <ns0:c r="B39" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C39" s="1" t="s">
-        <ns0:v>102</ns0:v>
-      </ns0:c>
-      <ns0:c r="D39" s="1" t="s">
-        <ns0:v>105</ns0:v>
-      </ns0:c>
-      <ns0:c r="E39" s="1" t="s">
-        <ns0:v>106</ns0:v>
-      </ns0:c>
-      <ns0:c r="G39" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A40" s="1" t="s">
-        <ns0:v>101</ns0:v>
-      </ns0:c>
-      <ns0:c r="B40" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C40" s="1" t="s">
-        <ns0:v>102</ns0:v>
-      </ns0:c>
-      <ns0:c r="D40" s="1" t="s">
-        <ns0:v>107</ns0:v>
-      </ns0:c>
-      <ns0:c r="E40" s="1" t="s">
-        <ns0:v>108</ns0:v>
-      </ns0:c>
-      <ns0:c r="G40" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A41" s="1" t="s">
-        <ns0:v>101</ns0:v>
-      </ns0:c>
-      <ns0:c r="B41" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C41" s="1" t="s">
-        <ns0:v>109</ns0:v>
-      </ns0:c>
-      <ns0:c r="D41" s="1" t="s">
-        <ns0:v>110</ns0:v>
-      </ns0:c>
-      <ns0:c r="E41" s="1" t="s">
-        <ns0:v>111</ns0:v>
-      </ns0:c>
-      <ns0:c r="G41" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A42" s="1" t="s">
-        <ns0:v>101</ns0:v>
-      </ns0:c>
-      <ns0:c r="B42" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C42" s="1" t="s">
-        <ns0:v>109</ns0:v>
-      </ns0:c>
-      <ns0:c r="D42" s="1" t="s">
-        <ns0:v>112</ns0:v>
-      </ns0:c>
-      <ns0:c r="E42" s="1" t="s">
-        <ns0:v>113</ns0:v>
-      </ns0:c>
-      <ns0:c r="G42" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A43" s="1" t="s">
-        <ns0:v>101</ns0:v>
-      </ns0:c>
-      <ns0:c r="B43" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C43" s="1" t="s">
-        <ns0:v>109</ns0:v>
-      </ns0:c>
-      <ns0:c r="D43" s="1" t="s">
-        <ns0:v>114</ns0:v>
-      </ns0:c>
-      <ns0:c r="E43" s="1" t="s">
-        <ns0:v>115</ns0:v>
-      </ns0:c>
-      <ns0:c r="G43" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A44" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B44" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C44" s="1" t="s">
-        <ns0:v>117</ns0:v>
-      </ns0:c>
-      <ns0:c r="D44" s="1" t="s">
-        <ns0:v>118</ns0:v>
-      </ns0:c>
-      <ns0:c r="E44" s="1" t="s">
-        <ns0:v>119</ns0:v>
-      </ns0:c>
-      <ns0:c r="G44" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A45" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B45" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C45" s="1" t="s">
-        <ns0:v>117</ns0:v>
-      </ns0:c>
-      <ns0:c r="D45" s="1" t="s">
-        <ns0:v>120</ns0:v>
-      </ns0:c>
-      <ns0:c r="E45" s="1" t="s">
-        <ns0:v>121</ns0:v>
-      </ns0:c>
-      <ns0:c r="G45" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A46" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B46" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C46" s="1" t="s">
-        <ns0:v>117</ns0:v>
-      </ns0:c>
-      <ns0:c r="D46" s="1" t="s">
-        <ns0:v>122</ns0:v>
-      </ns0:c>
-      <ns0:c r="E46" s="1" t="s">
-        <ns0:v>123</ns0:v>
-      </ns0:c>
-      <ns0:c r="G46" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A47" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B47" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C47" s="1" t="s">
-        <ns0:v>124</ns0:v>
-      </ns0:c>
-      <ns0:c r="D47" s="1" t="s">
-        <ns0:v>125</ns0:v>
-      </ns0:c>
-      <ns0:c r="E47" s="1" t="s">
-        <ns0:v>126</ns0:v>
-      </ns0:c>
-      <ns0:c r="G47" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A48" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B48" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C48" s="1" t="s">
-        <ns0:v>124</ns0:v>
-      </ns0:c>
-      <ns0:c r="D48" s="1" t="s">
-        <ns0:v>127</ns0:v>
-      </ns0:c>
-      <ns0:c r="E48" s="1" t="s">
-        <ns0:v>128</ns0:v>
-      </ns0:c>
-      <ns0:c r="G48" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A49" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B49" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C49" s="1" t="s">
-        <ns0:v>124</ns0:v>
-      </ns0:c>
-      <ns0:c r="D49" s="1" t="s">
-        <ns0:v>129</ns0:v>
-      </ns0:c>
-      <ns0:c r="E49" s="1" t="s">
-        <ns0:v>130</ns0:v>
-      </ns0:c>
-      <ns0:c r="G49" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A50" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B50" s="1" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-      <ns0:c r="C50" s="1" t="s">
-        <ns0:v>131</ns0:v>
-      </ns0:c>
-      <ns0:c r="D50" s="1" t="s">
-        <ns0:v>132</ns0:v>
-      </ns0:c>
-      <ns0:c r="E50" s="1" t="s">
-        <ns0:v>133</ns0:v>
-      </ns0:c>
-      <ns0:c r="G50" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A51" s="1" t="s">
-        <ns0:v>116</ns0:v>
-      </ns0:c>
-      <ns0:c r="B51" s="1" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-      <ns0:c r="C51" s="1" t="s">
-        <ns0:v>131</ns0:v>
-      </ns0:c>
-      <ns0:c r="D51" s="1" t="s">
-        <ns0:v>134</ns0:v>
-      </ns0:c>
-      <ns0:c r="E51" s="1" t="s">
-        <ns0:v>135</ns0:v>
-      </ns0:c>
-      <ns0:c r="G51" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-  </ns0:sheetData>
-  <ns0:printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <ns0:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <ns0:pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <ns0:headerFooter differentFirst="false" differentOddEven="false">
-    <ns0:oddHeader/>
-    <ns0:oddFooter/>
-  </ns0:headerFooter>
-</ns0:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <ns0:sheetPr filterMode="false">
-    <ns0:pageSetUpPr fitToPage="false"/>
-  </ns0:sheetPr>
-  <ns0:dimension ref="A1:H51"/>
-  <ns0:sheetViews>
-    <ns0:sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <ns0:selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </ns0:sheetView>
-  </ns0:sheetViews>
-  <ns0:sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <ns0:cols>
-    <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.68"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.79"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.33"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="97.79"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="63.58"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.33"/>
-    <ns0:col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="59.26"/>
-    <ns0:col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="8.68"/>
-  </ns0:cols>
-  <ns0:sheetData>
-    <ns0:row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A1" s="2" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-      <ns0:c r="B1" s="2" t="s">
-        <ns0:v>1</ns0:v>
-      </ns0:c>
-      <ns0:c r="C1" s="2" t="s">
-        <ns0:v>2</ns0:v>
-      </ns0:c>
-      <ns0:c r="D1" s="2" t="s">
-        <ns0:v>3</ns0:v>
-      </ns0:c>
-      <ns0:c r="E1" s="2" t="s">
-        <ns0:v>4</ns0:v>
-      </ns0:c>
-      <ns0:c r="F1" s="2" t="s">
-        <ns0:v>5</ns0:v>
-      </ns0:c>
-      <ns0:c r="G1" s="2" t="s">
-        <ns0:v>6</ns0:v>
-      </ns0:c>
-      <ns0:c r="H1" s="2" t="s">
-        <ns0:v>7</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A2" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B2" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C2" s="1" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="D2" s="1" t="s">
-        <ns0:v>11</ns0:v>
-      </ns0:c>
-      <ns0:c r="E2" s="1" t="s">
-        <ns0:v>12</ns0:v>
-      </ns0:c>
-      <ns0:c r="G2" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F2" s="1" t="s">
-        <ns0:v>136</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A3" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B3" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C3" s="1" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="D3" s="1" t="s">
-        <ns0:v>14</ns0:v>
-      </ns0:c>
-      <ns0:c r="E3" s="1" t="s">
-        <ns0:v>15</ns0:v>
-      </ns0:c>
-      <ns0:c r="G3" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F3" s="1" t="s">
-        <ns0:v>137</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A4" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B4" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C4" s="1" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="D4" s="1" t="s">
-        <ns0:v>16</ns0:v>
-      </ns0:c>
-      <ns0:c r="E4" s="1" t="s">
-        <ns0:v>17</ns0:v>
-      </ns0:c>
-      <ns0:c r="G4" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F4" s="1" t="s">
-        <ns0:v>138</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A5" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B5" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C5" s="1" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="D5" s="1" t="s">
-        <ns0:v>18</ns0:v>
-      </ns0:c>
-      <ns0:c r="E5" s="1" t="s">
-        <ns0:v>19</ns0:v>
-      </ns0:c>
-      <ns0:c r="G5" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F5" s="1" t="s">
-        <ns0:v>139</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A6" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B6" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C6" s="1" t="s">
-        <ns0:v>21</ns0:v>
-      </ns0:c>
-      <ns0:c r="D6" s="1" t="s">
-        <ns0:v>22</ns0:v>
-      </ns0:c>
-      <ns0:c r="E6" s="1" t="s">
-        <ns0:v>23</ns0:v>
-      </ns0:c>
-      <ns0:c r="G6" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F6" s="1" t="s">
-        <ns0:v>140</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A7" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B7" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C7" s="1" t="s">
-        <ns0:v>21</ns0:v>
-      </ns0:c>
-      <ns0:c r="D7" s="1" t="s">
-        <ns0:v>24</ns0:v>
-      </ns0:c>
-      <ns0:c r="E7" s="1" t="s">
-        <ns0:v>25</ns0:v>
-      </ns0:c>
-      <ns0:c r="G7" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F7" s="1" t="s">
-        <ns0:v>141</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A8" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B8" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C8" s="1" t="s">
-        <ns0:v>21</ns0:v>
-      </ns0:c>
-      <ns0:c r="D8" s="1" t="s">
-        <ns0:v>26</ns0:v>
-      </ns0:c>
-      <ns0:c r="E8" s="1" t="s">
-        <ns0:v>27</ns0:v>
-      </ns0:c>
-      <ns0:c r="G8" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F8" s="1" t="s">
-        <ns0:v>142</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A9" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B9" s="1" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-      <ns0:c r="C9" s="1" t="s">
-        <ns0:v>29</ns0:v>
-      </ns0:c>
-      <ns0:c r="D9" s="1" t="s">
-        <ns0:v>30</ns0:v>
-      </ns0:c>
-      <ns0:c r="E9" s="1" t="s">
-        <ns0:v>31</ns0:v>
-      </ns0:c>
-      <ns0:c r="G9" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F9" s="1" t="s">
-        <ns0:v>143</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A10" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B10" s="1" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-      <ns0:c r="C10" s="1" t="s">
-        <ns0:v>29</ns0:v>
-      </ns0:c>
-      <ns0:c r="D10" s="1" t="s">
-        <ns0:v>32</ns0:v>
-      </ns0:c>
-      <ns0:c r="E10" s="1" t="s">
-        <ns0:v>33</ns0:v>
-      </ns0:c>
-      <ns0:c r="G10" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F10" s="1" t="s">
-        <ns0:v>144</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A11" s="1" t="s">
-        <ns0:v>8</ns0:v>
-      </ns0:c>
-      <ns0:c r="B11" s="1" t="s">
-        <ns0:v>28</ns0:v>
-      </ns0:c>
-      <ns0:c r="C11" s="1" t="s">
-        <ns0:v>29</ns0:v>
-      </ns0:c>
-      <ns0:c r="D11" s="1" t="s">
-        <ns0:v>34</ns0:v>
-      </ns0:c>
-      <ns0:c r="E11" s="1" t="s">
-        <ns0:v>35</ns0:v>
-      </ns0:c>
-      <ns0:c r="G11" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F11" s="1" t="s">
-        <ns0:v>145</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A12" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B12" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C12" s="1" t="s">
-        <ns0:v>37</ns0:v>
-      </ns0:c>
-      <ns0:c r="D12" s="1" t="s">
-        <ns0:v>38</ns0:v>
-      </ns0:c>
-      <ns0:c r="E12" s="1" t="s">
-        <ns0:v>39</ns0:v>
-      </ns0:c>
-      <ns0:c r="G12" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F12" s="1" t="s">
-        <ns0:v>146</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A13" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B13" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C13" s="1" t="s">
-        <ns0:v>37</ns0:v>
-      </ns0:c>
-      <ns0:c r="D13" s="1" t="s">
-        <ns0:v>40</ns0:v>
-      </ns0:c>
-      <ns0:c r="E13" s="1" t="s">
-        <ns0:v>41</ns0:v>
-      </ns0:c>
-      <ns0:c r="G13" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F13" s="1" t="s">
-        <ns0:v>147</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A14" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B14" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C14" s="1" t="s">
-        <ns0:v>37</ns0:v>
-      </ns0:c>
-      <ns0:c r="D14" s="1" t="s">
-        <ns0:v>42</ns0:v>
-      </ns0:c>
-      <ns0:c r="E14" s="1" t="s">
-        <ns0:v>43</ns0:v>
-      </ns0:c>
-      <ns0:c r="G14" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F14" s="1" t="s">
-        <ns0:v>148</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A15" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B15" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C15" s="1" t="s">
-        <ns0:v>37</ns0:v>
-      </ns0:c>
-      <ns0:c r="D15" s="1" t="s">
-        <ns0:v>44</ns0:v>
-      </ns0:c>
-      <ns0:c r="E15" s="1" t="s">
-        <ns0:v>45</ns0:v>
-      </ns0:c>
-      <ns0:c r="G15" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F15" s="1" t="s">
-        <ns0:v>149</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A16" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B16" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C16" s="1" t="s">
-        <ns0:v>37</ns0:v>
-      </ns0:c>
-      <ns0:c r="D16" s="1" t="s">
-        <ns0:v>46</ns0:v>
-      </ns0:c>
-      <ns0:c r="E16" s="1" t="s">
-        <ns0:v>47</ns0:v>
-      </ns0:c>
-      <ns0:c r="G16" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F16" s="1" t="s">
-        <ns0:v>150</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A17" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B17" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C17" s="1" t="s">
-        <ns0:v>48</ns0:v>
-      </ns0:c>
-      <ns0:c r="D17" s="1" t="s">
-        <ns0:v>49</ns0:v>
-      </ns0:c>
-      <ns0:c r="E17" s="1" t="s">
-        <ns0:v>50</ns0:v>
-      </ns0:c>
-      <ns0:c r="G17" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F17" s="1" t="s">
-        <ns0:v>151</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A18" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B18" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C18" s="1" t="s">
-        <ns0:v>48</ns0:v>
-      </ns0:c>
-      <ns0:c r="D18" s="1" t="s">
-        <ns0:v>52</ns0:v>
-      </ns0:c>
-      <ns0:c r="E18" s="1" t="s">
-        <ns0:v>53</ns0:v>
-      </ns0:c>
-      <ns0:c r="G18" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F18" s="1" t="s">
-        <ns0:v>152</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A19" s="1" t="s">
-        <ns0:v>36</ns0:v>
-      </ns0:c>
-      <ns0:c r="B19" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C19" s="1" t="s">
-        <ns0:v>48</ns0:v>
-      </ns0:c>
-      <ns0:c r="D19" s="1" t="s">
-        <ns0:v>54</ns0:v>
-      </ns0:c>
-      <ns0:c r="E19" s="1" t="s">
-        <ns0:v>55</ns0:v>
-      </ns0:c>
-      <ns0:c r="G19" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F19" s="1" t="s">
-        <ns0:v>153</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A20" s="1" t="s">
-        <ns0:v>56</ns0:v>
-      </ns0:c>
-      <ns0:c r="B20" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C20" s="1" t="s">
-        <ns0:v>57</ns0:v>
-      </ns0:c>
-      <ns0:c r="D20" s="1" t="s">
-        <ns0:v>58</ns0:v>
-      </ns0:c>
-      <ns0:c r="E20" s="1" t="s">
-        <ns0:v>59</ns0:v>
-      </ns0:c>
-      <ns0:c r="G20" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F20" s="1" t="s">
-        <ns0:v>154</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A21" s="1" t="s">
-        <ns0:v>56</ns0:v>
-      </ns0:c>
-      <ns0:c r="B21" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C21" s="1" t="s">
-        <ns0:v>57</ns0:v>
-      </ns0:c>
-      <ns0:c r="D21" s="1" t="s">
-        <ns0:v>60</ns0:v>
-      </ns0:c>
-      <ns0:c r="E21" s="1" t="s">
-        <ns0:v>61</ns0:v>
-      </ns0:c>
-      <ns0:c r="G21" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F21" s="1" t="s">
-        <ns0:v>155</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A22" s="1" t="s">
-        <ns0:v>56</ns0:v>
-      </ns0:c>
-      <ns0:c r="B22" s="1" t="s">
-        <ns0:v>9</ns0:v>
-      </ns0:c>
-      <ns0:c r="C22" s="1" t="s">
-        <ns0:v>57</ns0:v>
-      </ns0:c>
-      <ns0:c r="D22" s="1" t="s">
-        <ns0:v>62</ns0:v>
-      </ns0:c>
-      <ns0:c r="E22" s="1" t="s">
-        <ns0:v>63</ns0:v>
-      </ns0:c>
-      <ns0:c r="G22" s="1" t="s">
-        <ns0:v>13</ns0:v>
-      </ns0:c>
-      <ns0:c r="F22" s="1" t="s">
-        <ns0:v>156</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A23" s="1" t="s">
-        <ns0:v>56</ns0:v>
-      </ns0:c>
-      <ns0:c r="B23" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C23" s="1" t="s">
-        <ns0:v>64</ns0:v>
-      </ns0:c>
-      <ns0:c r="D23" s="1" t="s">
-        <ns0:v>65</ns0:v>
-      </ns0:c>
-      <ns0:c r="E23" s="1" t="s">
-        <ns0:v>66</ns0:v>
-      </ns0:c>
-      <ns0:c r="G23" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A24" s="1" t="s">
-        <ns0:v>56</ns0:v>
-      </ns0:c>
-      <ns0:c r="B24" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C24" s="1" t="s">
-        <ns0:v>64</ns0:v>
-      </ns0:c>
-      <ns0:c r="D24" s="1" t="s">
-        <ns0:v>67</ns0:v>
-      </ns0:c>
-      <ns0:c r="E24" s="1" t="s">
-        <ns0:v>68</ns0:v>
-      </ns0:c>
-      <ns0:c r="G24" s="1" t="s">
-        <ns0:v>51</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <ns0:c r="A25" s="1" t="s">
-        <ns0:v>56</ns0:v>
-      </ns0:c>
-      <ns0:c r="B25" s="1" t="s">
-        <ns0:v>20</ns0:v>
-      </ns0:c>
-      <ns0:c r="C25" s="1" t="s">
-        <ns0:v>64</ns0:v>
-      </ns0:c>
-      <ns0:c r="D25" s="1" t="s">
-        <ns0:v>69</ns0:v>
-      </ns0:c>
-      <ns0:c r="E25" s="1" t="s">
-        <ns0:v>70</ns0:v>
-      </ns0:c>
-      <ns0:c r="G25" s="1" t="s">
-        <ns0:v>51</ns0:v>
+        <ns0:v>13</ns0:v>
+      </ns0:c>
+      <ns0:c r="F25" s="1" t="s">
+        <ns0:v>159</ns0:v>
       </ns0:c>
     </ns0:row>
     <ns0:row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -1560,9 +1560,14 @@
           <t>Persist equity curve and trades from Backtrader runs into backtest_equity_points and backtest_trades tables.</t>
         </is>
       </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>backtest_equity_points and backtest_trades tables added; engine now returns equity_curve and trades which are persisted per backtest.</t>
+        </is>
+      </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -1592,9 +1597,14 @@
           <t>Compute key metrics (total return, max drawdown, win rate, average win/loss, trade count) and store in metrics_json.</t>
         </is>
       </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>BacktestService computes total_return, max_drawdown, trade_count, win_rate, avg_win, avg_loss and stores them in metrics_json.</t>
+        </is>
+      </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -1624,9 +1634,14 @@
           <t>Expose API endpoints to fetch backtest summary, equity series, and trades for a given backtest_id.</t>
         </is>
       </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>API exposes /api/backtests/{id}/equity and /api/backtests/{id}/trades for detailed results.</t>
+        </is>
+      </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -1656,9 +1671,14 @@
           <t>Implement Backtest detail page with summary metrics and equity curve chart (interactive).</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Backtests page now shows a Backtest Details panel with summary metrics and an equity curve chart for the selected run.</t>
+        </is>
+      </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -1688,9 +1708,14 @@
           <t>Add trades table with sorting/filtering, showing entry/exit, P&amp;L, and basic stats.</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Trades table added to Backtest Details panel, listing entry/exit, side, size, and PnL for each trade.</t>
+        </is>
+      </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -1720,9 +1745,14 @@
           <t>Optionally overlay buy/sell markers on price chart for one-symbol backtests.</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Backtest Details panel also shows the parameter set used (when available), with JSON rendered readably.</t>
+        </is>
+      </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
@@ -384,1827 +384,2119 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>sprint#</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>group#</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>group task description</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>task#</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>task description</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>remarks</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>deviations (from original plan)</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>Backend foundation: FastAPI skeleton, config, meta DB setup</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>S01_G01_TB001</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>Create FastAPI project skeleton with basic app factory and routing structure.</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>FastAPI app factory and /health endpoint created.</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="5">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>Backend foundation: FastAPI skeleton, config, meta DB setup</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>S01_G01_TB002</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>Implement configuration loader (env-based) for DB paths, Kite keys, and app settings.</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>Env-based Settings config using pydantic-settings added.</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1" s="5">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>Backend foundation: FastAPI skeleton, config, meta DB setup</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>S01_G01_TB003</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>Design and create sigmaqlab_meta.db schema migration for core tables (strategies, strategy_parameters, backtests).</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>sigmaqlab_meta.db schema for strategies/params/backtests wired via SQLAlchemy.</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>Backend foundation: FastAPI skeleton, config, meta DB setup</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>S01_G01_TB004</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>Set up structured logging for backend (JSON or key-value format) with log levels and request logging.</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>JSON logging with level/timestamp and Uvicorn integration configured.</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>Frontend foundation: React+TS+MUI scaffold and base layout</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>S01_G02_TF001</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>Create React + TypeScript + Vite (or CRA) app and integrate Material UI.</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>React + TS + Vite + MUI frontend scaffolded.</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>Frontend foundation: React+TS+MUI scaffold and base layout</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>S01_G02_TF002</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>Implement global layout: AppBar with SigmaQLab branding, navigation skeleton, and basic dark theme.</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>Global dark theme and SigmaQLab layout (AppBar + nav) implemented.</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="8" ht="27.75" customHeight="1" s="5">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>Frontend foundation: React+TS+MUI scaffold and base layout</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>S01_G02_TF003</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>Set up React Router with routes for Dashboard, Strategies, Backtests, Data, Settings.</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>React Router routes for Dashboard/Strategies/Backtests/Data/Settings added.</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="5">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Developer experience: tooling, linting, and pre-commit</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>S01_G03_TB001</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>Configure backend tooling: black, isort, mypy/ruff, and add pre-commit hooks.</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>Backend tooling (black, ruff, pytest, pre-commit) configured.</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="5">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>Developer experience: tooling, linting, and pre-commit</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>S01_G03_TF002</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>Configure frontend tooling: ESLint, Prettier, TypeScript strict settings.</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>Frontend tooling (ESLint, Prettier, strict TS) configured.</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="5">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>S01</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>Developer experience: tooling, linting, and pre-commit</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>S01_G03_TB003</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>Add basic test harness for backend (pytest) with one sample test to validate CI wiring.</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>Basic pytest harness with /health test in place.</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="5">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>Data service: Kite/yfinance integration and price DB persistence</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>S02_G01_TB001</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>Implement Zerodha Kite client wrapper for historical OHLCV and holdings (read-only).</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>Kite client wrapper for historical OHLCV implemented.</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="5">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>Data service: Kite/yfinance integration and price DB persistence</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>S02_G01_TB002</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>Implement optional yfinance/CSV loader as fallback data provider.</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>yfinance and CSV data providers added as fallbacks.</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="5">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>Data service: Kite/yfinance integration and price DB persistence</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>S02_G01_TB003</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>Design and create sigmaqlab_prices.db schema (price_bars table with indices).</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>sigmaqlab_prices.db and price_bars schema created.</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="15" ht="27.75" customHeight="1" s="5">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>Data service: Kite/yfinance integration and price DB persistence</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>S02_G01_TB004</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>Implement Data Service functions to fetch, normalize, and persist OHLCV data from providers into price DB.</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>DataService to fetch/normalise/persist OHLCV into prices DB implemented.</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="5">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>Data service: Kite/yfinance integration and price DB persistence</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>S02_G01_TB005</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>Expose FastAPI endpoint to trigger data fetch for given symbol, timeframe, and date range.</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>/api/data/fetch endpoint added and covered by tests.</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="5">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>Data management UI: fetch, list, and preview data</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>S02_G02_TF001</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>Create Data page with form to trigger data fetch via API (symbol, timeframe, date range).</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>Data page fetch form wired to backend data fetch API.</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="18" ht="27.75" customHeight="1" s="5">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>Data management UI: fetch, list, and preview data</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>S02_G02_TF002</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>Implement table listing available symbol/timeframe combinations and coverage ranges.</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="0" t="inlineStr">
         <is>
           <t>Coverage summary table with source column, row selection, Select All, and Delete Selected controls.</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="19" ht="41.75" customHeight="1" s="5">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>S02</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>Data management UI: fetch, list, and preview data</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>S02_G02_TF003</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>Add simple price &amp; volume preview chart for selected symbol/timeframe using chosen charting library.</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="0" t="inlineStr">
         <is>
           <t>Preview now uses lightweight-charts with grouped indicator toggles, tall adjustable chart, volume bars toggle, range presets (intraday + calendar), simple tools (last price line/latest-bar marker), and synced price/oscillator panes.</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="5">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>Strategy service: metadata and parameter storage</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>S03_G01_TB001</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>Implement Strategy CRUD endpoints (create, list, get, update, delete) in FastAPI.</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="0" t="inlineStr">
         <is>
           <t>Strategy CRUD API endpoints implemented.</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="5">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>Strategy service: metadata and parameter storage</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>S03_G01_TB002</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>Implement Strategy Parameters CRUD endpoints and tie them to strategies.</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="0" t="inlineStr">
         <is>
           <t>Strategy parameter CRUD endpoints wired to strategies.</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="22" ht="41.75" customHeight="1" s="5">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>Strategy service: metadata and parameter storage</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>S03_G01_TB003</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>Add fields for tags, categories, statuses, and integration metadata in schema and API models.</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="0" t="inlineStr">
         <is>
           <t>Tags/category/status/integration fields exposed in API models. Engine code field added to Strategy schema and API models so multiple business codes can share one engine implementation.</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="23" ht="41.75" customHeight="1" s="5">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>Strategy Library UI: list, details, and parameter sets</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>S03_G02_TF001</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="0" t="inlineStr">
         <is>
           <t>Implement Strategies list view with filters (status, category, search) and pagination.</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="0" t="inlineStr">
         <is>
           <t>Strategy list view in React (table) with edit/delete implemented. Strategies list shows engine implementation and supports filtering by engine_code.</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="5">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>Strategy Library UI: list, details, and parameter sets</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>S03_G02_TF002</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>Implement Strategy detail view showing description, tags, and recent backtests placeholder.</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="0" t="inlineStr">
         <is>
           <t>Strategy detail panel with status/tags/integration fields added.</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="5">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>S03</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>Strategy Library UI: list, details, and parameter sets</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>S03_G02_TF003</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="0" t="inlineStr">
         <is>
           <t>Add parameter set management UI (list, create, edit, delete) for each strategy.</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="0" t="inlineStr">
         <is>
           <t>Parameter sets table and JSON-based create/edit/delete wired to API.</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="26" ht="41.75" customHeight="1" s="5">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>Backtest engine: Backtrader integration and engine interface</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>S04_G01_TB001</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>Define Strategy Engine interface and BacktestResult data models in backend.</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="0" t="inlineStr">
         <is>
           <t>BacktestConfig/BacktestResult engine interface and types defined. Backtest engine registry now keyed by engine_code (e.g. SmaCrossStrategy) with aliases for SMA_X* codes.</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="5">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>Backtest engine: Backtrader integration and engine interface</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>S04_G01_TB002</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="0" t="inlineStr">
         <is>
           <t>Integrate Backtrader as primary engine and implement adapter that conforms to engine interface.</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="0" t="inlineStr">
         <is>
           <t>Backtrader engine (SMA_X) integrated behind StrategyEngine interface.</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="28" ht="41.75" customHeight="1" s="5">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>Backtest engine: Backtrader integration and engine interface</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="0" t="inlineStr">
         <is>
           <t>S04_G01_TB003</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="0" t="inlineStr">
         <is>
           <t>Implement one reference strategy in Backtrader (e.g., simple SMA crossover) wired to a Strategy record.</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="0" t="inlineStr">
         <is>
           <t>BacktestService runs engine using DB price_bars and persists Backtest rows. BacktestService now uses Strategy.engine_code (falling back to code) when selecting engine implementation.</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="29" ht="28.35" customHeight="1" s="5">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="0" t="inlineStr">
         <is>
           <t>Backtest execution: API endpoint and simple UI trigger</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="0" t="inlineStr">
         <is>
           <t>S04_G02_TB001</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="0" t="inlineStr">
         <is>
           <t>Implement API to run a single backtest given strategy_id, params_id, symbols, timeframe, and date range.</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="0" t="inlineStr">
         <is>
           <t>POST /api/backtests endpoint wired to BacktestService and covered by tests.</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="30" ht="28.35" customHeight="1" s="5">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>Backtest execution: API endpoint and simple UI trigger</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="0" t="inlineStr">
         <is>
           <t>S04_G02_TF002</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="0" t="inlineStr">
         <is>
           <t>Add 'Run Backtest' modal/dialog in Strategy detail view to configure and submit a backtest.</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="0" t="inlineStr">
         <is>
           <t>Run backtest configuration form implemented on Backtests page instead of a modal in Strategy details.</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
         <is>
           <t>UI deviation: backtest configuration lives on /backtests page; a strategy-scoped modal can be added later if needed.</t>
         </is>
       </c>
     </row>
     <row r="31" ht="28.35" customHeight="1" s="5">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>S04</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="0" t="inlineStr">
         <is>
           <t>Backtest execution: API endpoint and simple UI trigger</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="0" t="inlineStr">
         <is>
           <t>S04_G02_TF003</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="0" t="inlineStr">
         <is>
           <t>Create basic Backtests list page showing submitted runs, status, and key summary fields.</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="0" t="inlineStr">
         <is>
           <t>Backtests page lists recent runs with strategy, symbol, timeframe, status, PnL, and final value.</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="32" ht="28.35" customHeight="1" s="5">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>Backtest results: persistence and metrics calculation</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="0" t="inlineStr">
         <is>
           <t>S05_G01_TB001</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="0" t="inlineStr">
         <is>
           <t>Persist equity curve and trades from Backtrader runs into backtest_equity_points and backtest_trades tables.</t>
         </is>
       </c>
-      <c r="F32" s="7" t="inlineStr">
+      <c r="F32" s="0" t="inlineStr">
         <is>
           <t>backtest_equity_points and backtest_trades tables added; engine now returns equity_curve and trades which are persisted per backtest.</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="33" ht="28.35" customHeight="1" s="5">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>Backtest results: persistence and metrics calculation</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="0" t="inlineStr">
         <is>
           <t>S05_G01_TB002</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="0" t="inlineStr">
         <is>
           <t>Compute key metrics (total return, max drawdown, win rate, average win/loss, trade count) and store in metrics_json.</t>
         </is>
       </c>
-      <c r="F33" s="7" t="inlineStr">
+      <c r="F33" s="0" t="inlineStr">
         <is>
           <t>BacktestService computes total_return, max_drawdown, trade_count, win_rate, avg_win, avg_loss and stores them in metrics_json.</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="34" ht="28.35" customHeight="1" s="5">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>Backtest results: persistence and metrics calculation</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="0" t="inlineStr">
         <is>
           <t>S05_G01_TB003</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="0" t="inlineStr">
         <is>
           <t>Expose API endpoints to fetch backtest summary, equity series, and trades for a given backtest_id.</t>
         </is>
       </c>
-      <c r="F34" s="7" t="inlineStr">
+      <c r="F34" s="0" t="inlineStr">
         <is>
           <t>API exposes /api/backtests/{id}/equity and /api/backtests/{id}/trades for detailed results.</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="35" ht="28.35" customHeight="1" s="5">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>Backtest detail UI: equity chart, trades table, and parameters</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="0" t="inlineStr">
         <is>
           <t>S05_G02_TF001</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="0" t="inlineStr">
         <is>
           <t>Implement Backtest detail page with summary metrics and equity curve chart (interactive).</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="F35" s="0" t="inlineStr">
         <is>
           <t>Backtests page now shows a Backtest Details panel with summary metrics and an equity curve chart for the selected run.</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="36" ht="28.35" customHeight="1" s="5">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>Backtest detail UI: equity chart, trades table, and parameters</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D36" s="0" t="inlineStr">
         <is>
           <t>S05_G02_TF002</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="0" t="inlineStr">
         <is>
           <t>Add trades table with sorting/filtering, showing entry/exit, P&amp;L, and basic stats.</t>
         </is>
       </c>
-      <c r="F36" s="7" t="inlineStr">
+      <c r="F36" s="0" t="inlineStr">
         <is>
           <t>Trades table added to Backtest Details panel, listing entry/exit, side, size, and PnL for each trade.</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="37" ht="28.35" customHeight="1" s="5">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>S05</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>Backtest detail UI: equity chart, trades table, and parameters</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D37" s="0" t="inlineStr">
         <is>
           <t>S05_G02_TF003</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="0" t="inlineStr">
         <is>
           <t>Optionally overlay buy/sell markers on price chart for one-symbol backtests.</t>
         </is>
       </c>
-      <c r="F37" s="7" t="inlineStr">
+      <c r="F37" s="0" t="inlineStr">
         <is>
           <t>Backtest Details panel also shows the parameter set used (when available), with JSON rendered readably.</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="5">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>Batch backtesting: grid search and parallel execution</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: backend metrics and projections</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
         <is>
           <t>S06_G01_TB001</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>Extend backtest API to accept parameter grids or multiple parameter sets for batch execution.</t>
-        </is>
-      </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Extend Backtest model to store effective params, risk/cost/visualization configs, and richer metrics_json.</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>Backtest model extended with label/notes and JSON configs (params_effective/risk/costs/visual), plus migration helper.</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="5">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>S06</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: backend metrics and projections</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>S06_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Introduce backtest_trades and backtest_equity_points persistence (or equivalent) for trades and equity curves.</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>backtest_trades/backtest_equity_points persisted with extra per-trade metrics (pnl_pct, holding_period_bars, max_theoretical_pnl, capture ratio).</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="5">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>S06</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: backend metrics and projections</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>S06_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Compute expanded backtest metrics (Sharpe, Sortino, alpha/beta, Calmar, volatility) from equity series.</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>Equity-based metrics (total_return, max_drawdown, volatility, Sharpe, Sortino, annual_return, Calmar) computed in BacktestService.</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="5">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>S06</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: backend metrics and projections</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>S06_G01_TB004</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Implement unrealised projection and per-trade what-if metrics using trades and price series.</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>Per-trade what-if metrics derived from price series and stored on BacktestTrade (what-if/max PnL and capture ratios).</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="5">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>S06</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: chart and series APIs</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>S06_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Add /api/backtests/{id}/chart-data endpoint returning price_bars, indicators, equity, projection, and trade markers.</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>JSON shape per qlab_bt_overhaul_prd.md 3.2.1.</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="5">
-      <c r="A39" s="4" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="5">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>Batch backtesting: grid search and parallel execution</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>S06_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>Implement batch execution using ProcessPoolExecutor with isolation per run.</t>
-        </is>
-      </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: chart and series APIs</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>S06_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>Add /api/backtests/{id}/trades endpoint returning enriched trade records with what-if metrics.</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>See qlab_bt_overhaul_prd.md 3.2.2.</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="5">
-      <c r="A40" s="4" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="5">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Batch backtesting: grid search and parallel execution</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>S06_G01_TB003</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>Store batch group identifier to link multiple backtests that belong to one optimization run.</t>
-        </is>
-      </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: chart and series APIs</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>S06_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Add /api/backtests/{id}/trades/export?format=csv endpoint for backend-generated CSV exports.</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>Implements CSV export behaviour from qlab_bt_overhaul_prd.md 2.4.2.</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="5">
-      <c r="A41" s="4" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="5">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>S06</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B45" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Optimization UI: batch backtests and parameter-performance views</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>S06_G02_TF001</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>Create UI to configure and submit batch backtests (parameter ranges, symbol universe).</t>
-        </is>
-      </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: chart and series APIs</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>S06_G02_TB004</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>Expose expanded metrics via backtest detail API (either enriched /api/backtests/{id} or dedicated metrics endpoint).</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>Aligns metrics exposure with qlab_bt_overhaul_prd.md 3.2.3.</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="5">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>S06</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="5">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>S07</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: backtest detail chart (price, volume, indicators, trades)</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>S07_G01_TF001</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Create Backtest detail view route/page that loads /api/backtests/{id}/chart-data and renders lightweight-charts price + volume + RSI panes.</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>Reuse Data preview chart infra where sensible.</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="5">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>S07</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: backtest detail chart (price, volume, indicators, trades)</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>S07_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>Render buy/sell markers and optional PnL labels on the backtest chart based on trade signals.</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>Markers and tooltips per qlab_bt_overhaul_prd.md 2.1.2.</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="5">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>S07</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: backtest detail chart (price, volume, indicators, trades)</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>S07_G01_TF003</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>Visualise unrealised projection overlay on the chart and ensure panes stay time-synchronised.</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>Projection overlay behaviour per qlab_bt_overhaul_prd.md 2.2.</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="5">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>S07</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Optimization UI: batch backtests and parameter-performance views</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>S06_G02_TF002</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>Implement batch results view showing parameter combinations and key metrics in tabular form.</t>
-        </is>
-      </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: strategy/backtest settings panel</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>S07_G02_TF001</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>Implement settings panel (modal or drawer) with tabs for Inputs, Risk, Costs, Visualization, and Meta/Notes.</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>Overall layout per qlab_bt_overhaul_prd.md 2.3.</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="5">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>S06</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
+    <row r="50" ht="27.75" customHeight="1" s="5">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>S07</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Optimization UI: batch backtests and parameter-performance views</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>S06_G02_TF003</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>Add simple visualization (e.g., heatmap or scatter plot) of parameters vs performance.</t>
-        </is>
-      </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: strategy/backtest settings panel</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>S07_G02_TF002</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>Wire Inputs tab to strategy parameter sets and per-backtest overrides used when calling POST /api/backtests.</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>Maps params_json to UI controls.</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="5">
-      <c r="A44" s="4" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="5">
+      <c r="A51" s="0" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Portfolio snapshots: schema, API, and import from Kite</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>S07_G01_TB001</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>Create portfolio_snapshots schema and CRUD endpoints for storing holdings snapshots.</t>
-        </is>
-      </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: strategy/backtest settings panel</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>S07_G02_TF003</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>Wire Risk, Costs, and Visualization tabs to backend config fields so that backtests run with the chosen settings.</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>Persists risk/costs/visual configs as per qlab_bt_overhaul_prd.md 2.3.</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="5">
-      <c r="A45" s="4" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>Portfolio snapshots: schema, API, and import from Kite</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>S07_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>Implement Data Service function to import current holdings from Kite into a portfolio snapshot.</t>
-        </is>
-      </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: trades table and exports</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>S07_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>Create rich trades table in Backtest detail view with columns for entry/exit, PnL, what-if PnL, and filters/sorting.</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>Trade columns per qlab_bt_overhaul_prd.md 2.4.1.</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="5">
-      <c r="A46" s="4" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>Portfolio snapshots: schema, API, and import from Kite</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>S07_G01_TF003</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>Add Portfolio page UI to list snapshots and show holdings with core/tactical tagging controls.</t>
-        </is>
-      </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: trades table and exports</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>S07_G03_TF002</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>Hook up Export button to /api/backtests/{id}/trades/export and trigger CSV download from the UI.</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>Implements UI side of CSV export.</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="5">
-      <c r="A47" s="4" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
         <is>
           <t>S07</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>Portfolio-aware backtests: starting portfolio and constraints</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>S07_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>Extend backtest engine config to accept a starting portfolio snapshot and core/tactical constraints.</t>
-        </is>
-      </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul UI: trades table and exports</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>S07_G03_TF003</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>Link trade table selection to chart markers and projection segments for interactive inspection.</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>Selecting a trade highlights corresponding chart region.</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="5">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>S07</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>Portfolio-aware backtests: starting portfolio and constraints</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>S07_G02_TB002</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>Update metrics to report portfolio-level impact (realized + unrealized changes vs baseline).</t>
-        </is>
-      </c>
-      <c r="G48" s="4" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: documentation, regression tests, and polish</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>S08_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>Add backend pytest coverage for new metrics, chart-data, trades, and export endpoints, including edge cases.</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>Focus on regression safety per qlab_bt_overhaul_prd.md 5.1.</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="5">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>S07</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Portfolio-aware backtests: starting portfolio and constraints</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>S07_G02_TF003</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>Update Backtest configuration UI to allow selecting a portfolio snapshot when running a backtest.</t>
-        </is>
-      </c>
-      <c r="G49" s="4" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: documentation, regression tests, and polish</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>S08_G01_TF002</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>Add or update frontend tests for Backtest detail chart, trades table, and settings panel interactions.</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>Aligns with qlab_bt_overhaul_prd.md 5.2.</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="27.75" customHeight="1" s="5">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>S07</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>Integration hooks: expose strategy summaries for SigmaTrader</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>S07_G03_TB001</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>Implement read-only API endpoint to return latest backtest summary for a given strategy_id for external consumers (SigmaTrader).</t>
-        </is>
-      </c>
-      <c r="G50" s="4" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" s="5">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>S07</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Integration hooks: expose strategy summaries for SigmaTrader</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>S07_G03_TB002</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>Ensure strategies can store and display linked SigmaTrader IDs and TradingView templates in the UI.</t>
-        </is>
-      </c>
-      <c r="G51" s="4" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>S08</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Overhaul: documentation, regression tests, and polish</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>S08_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>Update qlab_impl_report.md and qlab_user_manual.md to document Backtest Overhaul features and workflows.</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>To be run towards the end of BT Overhaul.</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -1938,12 +1938,12 @@
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>JSON shape per qlab_bt_overhaul_prd.md 3.2.1.</t>
+          <t>Added /api/backtests/{id}/chart-data returning price_bars, indicators, equity, projection, and trades (BacktestChartDataResponse).</t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -1975,12 +1975,12 @@
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>See qlab_bt_overhaul_prd.md 3.2.2.</t>
+          <t>Enriched BacktestTradeRead and /api/backtests/{id}/trades with per-trade metrics (pnl_pct, holding_period_bars, max_theoretical_pnl, capture ratio).</t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>Implements CSV export behaviour from qlab_bt_overhaul_prd.md 2.4.2.</t>
+          <t>Implemented /api/backtests/{id}/trades/export CSV endpoint for downloading backtest trades.</t>
         </is>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2049,12 +2049,12 @@
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>Aligns metrics exposure with qlab_bt_overhaul_prd.md 3.2.3.</t>
+          <t>Metrics exposed via BacktestRead (GET /api/backtests/{id}) and reused inside chart-data backtest field.</t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -2086,12 +2086,12 @@
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>Reuse Data preview chart infra where sensible.</t>
+          <t>BacktestDetailChart added to Backtests page (price+equity+projection with trade markers).</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>Markers and tooltips per qlab_bt_overhaul_prd.md 2.1.2.</t>
+          <t>Buy/sell markers and synchronised price/equity panes wired to /api/backtests/{id}/chart-data`.</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2160,12 +2160,12 @@
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>Projection overlay behaviour per qlab_bt_overhaul_prd.md 2.2.</t>
+          <t>Projection overlay rendered in equity pane based on unrealised what-if equity path.</t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>Overall layout per qlab_bt_overhaul_prd.md 2.3.</t>
+          <t>Settings modal implemented with Inputs/Risk/Costs/Visualization/Meta tabs for each backtest.</t>
         </is>
       </c>
       <c r="G49" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2234,12 +2234,12 @@
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>Maps params_json to UI controls.</t>
+          <t>Settings modal wired to PATCH /api/backtests/{id}/settings and BacktestRead configs.</t>
         </is>
       </c>
       <c r="G50" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>Persists risk/costs/visual configs as per qlab_bt_overhaul_prd.md 2.3.</t>
+          <t>Risk/costs/visual configs persisted on Backtest and applied to chart behaviour.</t>
         </is>
       </c>
       <c r="G51" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2308,12 @@
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>Trade columns per qlab_bt_overhaul_prd.md 2.4.1.</t>
+          <t>Trades table with what-if metrics and cumulative PnL added to Backtest Details.</t>
         </is>
       </c>
       <c r="G52" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>Implements UI side of CSV export.</t>
+          <t>Export CSV button hooked to /api/backtests/{id}/trades/export in UI.</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2382,12 +2382,17 @@
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>Selecting a trade highlights corresponding chart region.</t>
+          <t>Interactive linkage between trade selection and chart segments deferred to future sprint.</t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Deferred: interactive selection/highlighting to be done in later BT iteration.</t>
         </is>
       </c>
     </row>
@@ -2419,12 +2424,12 @@
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>Focus on regression safety per qlab_bt_overhaul_prd.md 5.1.</t>
+          <t>User manual updated for coverage IDs, new Run Backtest flow, Backtest Details and settings.</t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2461,7 @@
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>Aligns with qlab_bt_overhaul_prd.md 5.2.</t>
+          <t>Frontend behaviour validated manually; automated tests can be added in a later test-focused sprint.</t>
         </is>
       </c>
       <c r="G56" s="0" t="inlineStr">
@@ -2493,12 +2498,12 @@
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>To be run towards the end of BT Overhaul.</t>
+          <t>qlab_impl_report.md and pytest/ruff config updated for Backtest Overhaul docs and lint/marker polish.</t>
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
@@ -2390,7 +2390,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
         <is>
           <t>Deferred: interactive selection/highlighting to be done in later BT iteration.</t>
         </is>
@@ -2502,6 +2502,487 @@
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Pine analysis and engine design</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>S09_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>Read and summarise zero_lag_trend_strategy_mtf.pine: inputs, signals, exits, risk, and MTF components.</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>Pine script inputs/logic/risk/MTF analysed and documented in docs/zero_lag_trend_mtf_design.md.</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Pine analysis and engine design</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>S09_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>Design Backtrader engine API for ZeroLagTrendMtfStrategy (params, MTF data requirements, risk hooks).</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>Backtrader engine design for ZeroLagTrendMtfStrategy (params, trend state, orders, MTF handling) captured in design doc.</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Pine analysis and engine design</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>S09_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>Define reference test cases (symbols, timeframes, params) and record TradingView benchmark metrics.</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>Reference test case structure (symbols, timeframes, metrics to compare vs TradingView) defined in design doc; numeric benchmarks to be filled once provided.</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Backtrader implementation and verification harness</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>Implement ZeroLagTrendMtfStrategy in Backtrader with zero-lag EMA, bands, entries/exits, and risk rules.</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>ZeroLagTrendMtfStrategy implemented in Backtrader with zero-lag EMA, ATR bands, trend state, and stop/target/pyramiding logic.</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Backtrader implementation and verification harness</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>Extend engine registry to expose ZeroLagTrendMtfStrategy via a distinct engine_code key.</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>Engine registry extended with ZeroLagTrendMtfStrategy and aliases ready for Strategy.engine_code wiring.</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Backtrader implementation and verification harness</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>Add pytest harness that runs ZeroLagTrendMtfStrategy on sample OHLCV and compares metrics to TV benchmarks.</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag engine pytest harness added on synthetic OHLCV to validate metrics shape (trade count, PnL, final equity).</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): Backtrader implementation and verification harness</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>S09_G02_TB004</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>Add pytest that inspects generated trades (entry/exit timestamps, sides) for a small window vs reference.</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>BacktestService integration test added to ensure Zero Lag strategy persists equity points and trades.</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): SigmaQLab backend and API integration</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>S09_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>Seed one or more Strategy rows for Zero Lag Trend MTF in sigmaqlab_meta.db with engine_code wired.</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>ZLAG_MTF strategy seeded in meta DB via seed_preset_strategies with ZeroLagTrendMtfStrategy engine and default params.</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): SigmaQLab backend and API integration</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>S09_G03_TB002</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>Extend BacktestService/chart-data pipeline to emit Zero Lag trend series and signal markers for this engine.</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>Backtests chart-data endpoint computes zl_basis/zl_upper/zl_lower indicator series for ZeroLagTrendMtfStrategy runs.</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): SigmaQLab backend and API integration</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>S09_G03_TB003</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>Ensure backtest metrics_json for this strategy includes standard risk metrics plus any strategy-specific stats.</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag runs now flow through existing metrics pipeline; any strategy-specific metrics can be added later if needed.</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): UI integration in Strategy Library and Backtests</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>S09_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>Expose Zero Lag Trend MTF strategies in Strategy Library with engine filter, params label, and category metadata.</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>Strategy Library can display/host ZLAG_MTF strategies once seeded (no extra UI changes needed).</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): UI integration in Strategy Library and Backtests</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>S09_G04_TF002</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>Allow Zero Lag Trend MTF strategies to be selected in Run Backtest form and run like other engines.</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>Run Backtest form already supports ZeroLagTrendMtfStrategy via Strategy.engine_code wiring; no special flow required.</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>S09</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>Zero Lag Trend Strategy (MTF): UI integration in Strategy Library and Backtests</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>S09_G04_TF003</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>Enhance Backtest Detail chart to render Zero Lag trend band and entry/exit markers when this engine is used.</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>Backtest Detail chart renders Zero Lag basis/bands via zl_basis/zl_upper/zl_lower series when present.</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
         <is>
           <t>implemented</t>
         </is>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
@@ -2988,6 +2988,450 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Stock Universe &amp; Groups: backend models and APIs</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>S10_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Define stocks, stock_groups, and stock_group_members models + migrations, and seed a minimal NSE equity universe.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>See docs/stock_universe_group_backtests_prd.md for concept.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Stock Universe &amp; Groups: backend models and APIs</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>S10_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Expose REST APIs for stock universe CRUD and group membership management (list/create/update/delete, add/remove members).</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Aligns Stocks page with backend; reuse existing FastAPI patterns.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Stock Universe &amp; Groups: backend models and APIs</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>S10_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Integrate universe/groups into BacktestService so group backtests can resolve symbols and validate coverage.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BacktestService can look up group symbols and warn when data is missing.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>S10_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Implement a portfolio simulator that consumes per-symbol candidate trades and enforces shared capital, max position size, per-trade risk, and broker constraints.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Initial policies: highestConfidenceSingle and allEligibleEqualWeight with default confidence=1.0.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>S10_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Extend BacktestService to run group backtests: load group members, run per-symbol strategy engines, feed candidates into portfolio simulator, and persist portfolio equity + trades.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Adds group_id/universe_mode to Backtest and keeps existing single-symbol path untouched.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>S10_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Compute portfolio-level realised/unrealised PnL and per-symbol summary metrics for group backtests.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Reuse existing PnL breakdown patterns and extend metrics_json schema.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Stocks page UI: universe &amp; groups management</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>S10_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Add Stocks page to sidebar with layout for Universe and Groups tabs.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Navigation only; no business logic change yet.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Stocks page UI: universe &amp; groups management</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>S10_G03_TF002</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Implement Universe tab table and forms for adding/editing/deactivating stocks wired to /api/stocks APIs.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Follows existing Data/Strategies table patterns.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Stocks page UI: universe &amp; groups management</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>S10_G03_TF003</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Implement Groups tab for creating/editing/deleting groups and managing group membership from the universe.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Provides source of truth for stock baskets such as trending_stocks.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Backtests UI: group runs &amp; portfolio reporting</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>S10_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Extend Run Backtest form with target selector (single stock vs stock group) and group dropdown, updating payloads for group backtests.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Group runs share risk/cost settings and initial capital across all symbols.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Backtests UI: group runs &amp; portfolio reporting</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>S10_G04_TF002</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Update Backtest Details to display group context, portfolio PnL breakdown (realised/unrealised), and per-symbol summary table for group backtests.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Keeps existing single-symbol layout while adding portfolio view when group_id is present.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Backtests UI: group runs &amp; portfolio reporting</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>S10_G04_TF003</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Ensure trades table and CSV export behave as a portfolio trade ledger (symbol-aware) for group runs.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Reuses existing trades export format with symbol column and new group context.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
@@ -2989,444 +2989,666 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="0" t="inlineStr">
         <is>
           <t>S10</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="0" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="0" t="inlineStr">
         <is>
           <t>Stock Universe &amp; Groups: backend models and APIs</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="0" t="inlineStr">
         <is>
           <t>S10_G01_TB001</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="0" t="inlineStr">
         <is>
           <t>Define stocks, stock_groups, and stock_group_members models + migrations, and seed a minimal NSE equity universe.</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="0" t="inlineStr">
         <is>
           <t>See docs/stock_universe_group_backtests_prd.md for concept.</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Stock Universe &amp; Groups: backend models and APIs</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>S10_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>Expose REST APIs for stock universe CRUD and group membership management (list/create/update/delete, add/remove members).</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>Aligns Stocks page with backend; reuse existing FastAPI patterns.</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Stock Universe &amp; Groups: backend models and APIs</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>S10_G01_TB003</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>Integrate universe/groups into BacktestService so group backtests can resolve symbols and validate coverage.</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>BacktestService can look up group symbols and warn when data is missing.</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>S10_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>Implement a portfolio simulator that consumes per-symbol candidate trades and enforces shared capital, max position size, per-trade risk, and broker constraints.</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>Initial policies: highestConfidenceSingle and allEligibleEqualWeight with default confidence=1.0.</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>S10_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>Extend BacktestService to run group backtests: load group members, run per-symbol strategy engines, feed candidates into portfolio simulator, and persist portfolio equity + trades.</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>Adds group_id/universe_mode to Backtest and keeps existing single-symbol path untouched.</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>S10_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>Compute portfolio-level realised/unrealised PnL and per-symbol summary metrics for group backtests.</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>Reuse existing PnL breakdown patterns and extend metrics_json schema.</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Stocks page UI: universe &amp; groups management</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>S10_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>Add Stocks page to sidebar with layout for Universe and Groups tabs.</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>Navigation only; no business logic change yet.</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Stocks page UI: universe &amp; groups management</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>S10_G03_TF002</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>Implement Universe tab table and forms for adding/editing/deactivating stocks wired to /api/stocks APIs.</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>Follows existing Data/Strategies table patterns.</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Stocks page UI: universe &amp; groups management</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>S10_G03_TF003</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>Implement Groups tab for creating/editing/deleting groups and managing group membership from the universe.</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>Provides source of truth for stock baskets such as trending_stocks.</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Backtests UI: group runs &amp; portfolio reporting</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>S10_G04_TF001</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>Extend Run Backtest form with target selector (single stock vs stock group) and group dropdown, updating payloads for group backtests.</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>Group runs share risk/cost settings and initial capital across all symbols.</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Backtests UI: group runs &amp; portfolio reporting</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>S10_G04_TF002</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>Update Backtest Details to display group context, portfolio PnL breakdown (realised/unrealised), and per-symbol summary table for group backtests.</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>Keeps existing single-symbol layout while adding portfolio view when group_id is present.</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Backtests UI: group runs &amp; portfolio reporting</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>S10_G04_TF003</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>Ensure trades table and CSV export behave as a portfolio trade ledger (symbol-aware) for group runs.</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>Reuses existing trades export format with symbol column and new group context.</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Data Manager &amp; OHLCV cache: PRD and design</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>S11_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>Draft PRD for persistent OHLCV cache and Data Manager, defining base timeframe, horizon, and ensure_coverage semantics.</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>See docs/qlab_data_cache_prd.md for detailed design.</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Data Manager &amp; OHLCV cache: backend implementation</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>S11_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>Implement DataManager helpers to compute coverage gaps per symbol/timeframe using price_bars and price_fetches.</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>Reuses existing prices DB schema; no breaking changes.</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Stock Universe &amp; Groups: backend models and APIs</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>S10_G01_TB002</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Expose REST APIs for stock universe CRUD and group membership management (list/create/update/delete, add/remove members).</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Aligns Stocks page with backend; reuse existing FastAPI patterns.</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Data Manager &amp; OHLCV cache: backend implementation</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>S11_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>Wire DataManager.ensure_symbol_coverage into run_single_backtest and ensure_group_coverage into run_group_backtest.</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>Backtests should no longer call Kite/yfinance directly; they rely on the local cache.</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Stock Universe &amp; Groups: backend models and APIs</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>S10_G01_TB003</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Integrate universe/groups into BacktestService so group backtests can resolve symbols and validate coverage.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>BacktestService can look up group symbols and warn when data is missing.</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Data Manager &amp; OHLCV cache: backend implementation</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>S11_G02_TB003</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>Add regression tests that run backtests without prior Fetch Data calls and assert that coverage is built and reused.</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>Tests may use a synthetic provider or stub DataService to avoid real network calls.</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>S10_G02_TB001</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Implement a portfolio simulator that consumes per-symbol candidate trades and enforces shared capital, max position size, per-trade risk, and broker constraints.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Initial policies: highestConfidenceSingle and allEligibleEqualWeight with default confidence=1.0.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Data Manager &amp; OHLCV cache: Data page integration</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>S11_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>Add a switch on the Data page to choose between casual preview and saving fetched data to the persistent cache.</t>
+        </is>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>When saving, default timeframe to base_timeframe and extend duration to the configured BT horizon.</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>S10_G02_TB002</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Extend BacktestService to run group backtests: load group members, run per-symbol strategy engines, feed candidates into portfolio simulator, and persist portfolio equity + trades.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Adds group_id/universe_mode to Backtest and keeps existing single-symbol path untouched.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Group backtests: portfolio simulator &amp; capital allocation</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>S10_G02_TB003</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Compute portfolio-level realised/unrealised PnL and per-symbol summary metrics for group backtests.</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Reuse existing PnL breakdown patterns and extend metrics_json schema.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Stocks page UI: universe &amp; groups management</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>S10_G03_TF001</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Add Stocks page to sidebar with layout for Universe and Groups tabs.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Navigation only; no business logic change yet.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Stocks page UI: universe &amp; groups management</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>S10_G03_TF002</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Implement Universe tab table and forms for adding/editing/deactivating stocks wired to /api/stocks APIs.</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Follows existing Data/Strategies table patterns.</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Stocks page UI: universe &amp; groups management</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>S10_G03_TF003</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Implement Groups tab for creating/editing/deleting groups and managing group membership from the universe.</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Provides source of truth for stock baskets such as trending_stocks.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Backtests UI: group runs &amp; portfolio reporting</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>S10_G04_TF001</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Extend Run Backtest form with target selector (single stock vs stock group) and group dropdown, updating payloads for group backtests.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Group runs share risk/cost settings and initial capital across all symbols.</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Backtests UI: group runs &amp; portfolio reporting</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>S10_G04_TF002</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Update Backtest Details to display group context, portfolio PnL breakdown (realised/unrealised), and per-symbol summary table for group backtests.</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Keeps existing single-symbol layout while adding portfolio view when group_id is present.</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Backtests UI: group runs &amp; portfolio reporting</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>S10_G04_TF003</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Ensure trades table and CSV export behave as a portfolio trade ledger (symbol-aware) for group runs.</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Reuses existing trades export format with symbol column and new group context.</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Data Manager &amp; OHLCV cache: Data page integration</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>S11_G03_TF002</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>Update Coverage Summary UI to indicate which rows are BT-ready cache entries vs preview-only data.</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>Leverages existing created_at and coverage_id fields; may add a simple badge/flag.</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -3497,12 +3497,12 @@
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>Reuses existing prices DB schema; no breaking changes.</t>
+          <t>DataManager.ensure_symbol_coverage implemented in backend/app/data_manager.py; uses price_bars, base_timeframe, and settings.base_horizon_days for cache-aware fetch decisions.</t>
         </is>
       </c>
       <c r="G84" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -3534,12 +3534,12 @@
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>Backtests should no longer call Kite/yfinance directly; they rely on the local cache.</t>
+          <t>BacktestService.run_single_backtest and run_group_backtest now call DataManager.ensure_symbol_coverage before loading price data; backtests no longer talk to Kite/yfinance directly.</t>
         </is>
       </c>
       <c r="G85" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>Tests may use a synthetic provider or stub DataService to avoid real network calls.</t>
+          <t>Regression coverage added via backend/tests/test_backtests_api.py and backend/tests/test_data_fetch_api.py so that backtests run without prior manual fetches, using synthetic sources for tests.</t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3608,12 @@
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>When saving, default timeframe to base_timeframe and extend duration to the configured BT horizon.</t>
+          <t>Data page now has a single "Save for backtesting (cache mode)" checkbox; in cache mode the fetch payload is adjusted to use cache-friendly timeframe/duration defaults.</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3645,12 @@
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>Leverages existing created_at and coverage_id fields; may add a simple badge/flag.</t>
+          <t>Coverage Summary table extended with Days and BT-ready (3Y) columns, computed from created_at/start/end to indicate rows that fully cover the base horizon.</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
@@ -3654,6 +3654,310 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Capital-aware signal routing: scoring model and PRD alignment</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>S12_G01_TB001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Review capital_aware_signal_routing_prd.md and design initial score_candidate() API and inputs (trend, liquidity, volatility).</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>See capital_aware_signal_routing_prd.md sections 3–4.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Capital-aware signal routing: scoring model and PRD alignment</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>S12_G01_TB002</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Implement score_candidate() helper in BacktestService using simple, interpretable scoring (trend + liquidity + volatility) with unit tests on synthetic data.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Backend-only; keep scoring pluggable for future refinements.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portfolio simulator: multi-candidate allocation per bar</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>S12_G02_TB001</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Refactor _run_portfolio_simulator to support multiple entries per timestamp with scored ordering while preserving existing risk and broker constraints.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Replace single-candidate break with scored loop, still using maxPositionSizePct and perTradeRiskPct.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portfolio simulator: multi-candidate allocation per bar</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>S12_G02_TB002</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Add configuration for optional limits (e.g. max new positions per bar) and verify cash/equity updates stay consistent across multiple entries.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Guardrails to avoid over-trading in dense signal regimes.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Capital-aware routing metrics and diagnostics</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>S12_G03_TB001</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Extend group backtest metrics with per-symbol contributions, average open positions, and capital utilisation to evaluate routing behaviour.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Update BacktestService metrics_json and chart-data responses for group runs.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Capital-aware routing metrics and diagnostics</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>S12_G03_TF001</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Expose new group backtest metrics (per-symbol PnL, utilisation, positions per bar) in Backtest Details UI for group runs.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>BacktestsPage: extend group summary and per-symbol table for capital-aware runs.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Group BT validation: trade correctness harness</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>S12_G04_TB001</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Implement backend harness to replay a small group backtest and assert that executed trades obey risk_config and costs_config (position size, maxPositionSizePct, allowShortSelling, MIS/CNC rules).</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>New pytest module comparing simulated portfolio state vs expectations for synthetic price data.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Group BT validation: trade correctness harness</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>S12_G04_TB002</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Add regression tests that compare group BT results (e.g., BSE-only vs group including BSE) under capital-aware routing to detect accidental changes in allocation behaviour.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Use fixed synthetic scenarios to verify routing decisions and PnL breakdowns.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -3655,308 +3655,308 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="0" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="0" t="inlineStr">
         <is>
           <t>Capital-aware signal routing: scoring model and PRD alignment</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="0" t="inlineStr">
         <is>
           <t>S12_G01_TB001</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="0" t="inlineStr">
         <is>
           <t>Review capital_aware_signal_routing_prd.md and design initial score_candidate() API and inputs (trend, liquidity, volatility).</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>See capital_aware_signal_routing_prd.md sections 3–4.</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>V1 scoring model implemented (mom20, ATR%, volume) and PRD aligned.</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="0" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="0" t="inlineStr">
         <is>
           <t>Capital-aware signal routing: scoring model and PRD alignment</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="0" t="inlineStr">
         <is>
           <t>S12_G01_TB002</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="0" t="inlineStr">
         <is>
           <t>Implement score_candidate() helper in BacktestService using simple, interpretable scoring (trend + liquidity + volatility) with unit tests on synthetic data.</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Backend-only; keep scoring pluggable for future refinements.</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>score_candidate() helper wired into _run_portfolio_simulator with tests.</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="0" t="inlineStr">
         <is>
           <t>Portfolio simulator: multi-candidate allocation per bar</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="0" t="inlineStr">
         <is>
           <t>S12_G02_TB001</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="0" t="inlineStr">
         <is>
           <t>Refactor _run_portfolio_simulator to support multiple entries per timestamp with scored ordering while preserving existing risk and broker constraints.</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Replace single-candidate break with scored loop, still using maxPositionSizePct and perTradeRiskPct.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>Portfolio simulator now supports multiple scored entries per bar under risk constraints.</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="0" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="0" t="inlineStr">
         <is>
           <t>Portfolio simulator: multi-candidate allocation per bar</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="0" t="inlineStr">
         <is>
           <t>S12_G02_TB002</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="0" t="inlineStr">
         <is>
           <t>Add configuration for optional limits (e.g. max new positions per bar) and verify cash/equity updates stay consistent across multiple entries.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Guardrails to avoid over-trading in dense signal regimes.</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>Verified cash/equity updates for multi-entry bars; optional caps can be added later.</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="0" t="inlineStr">
         <is>
           <t>Capital-aware routing metrics and diagnostics</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="0" t="inlineStr">
         <is>
           <t>S12_G03_TB001</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" s="0" t="inlineStr">
         <is>
           <t>Extend group backtest metrics with per-symbol contributions, average open positions, and capital utilisation to evaluate routing behaviour.</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Update BacktestService metrics_json and chart-data responses for group runs.</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>Added routing_debug metrics and per-symbol summaries for group backtests.</t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="0" t="inlineStr">
         <is>
           <t>G03</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="0" t="inlineStr">
         <is>
           <t>Capital-aware routing metrics and diagnostics</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="0" t="inlineStr">
         <is>
           <t>S12_G03_TF001</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="0" t="inlineStr">
         <is>
           <t>Expose new group backtest metrics (per-symbol PnL, utilisation, positions per bar) in Backtest Details UI for group runs.</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>BacktestsPage: extend group summary and per-symbol table for capital-aware runs.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>Backtests UI shows capital-aware routing debug and explains scoring legend.</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="0" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="0" t="inlineStr">
         <is>
           <t>Group BT validation: trade correctness harness</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="0" t="inlineStr">
         <is>
           <t>S12_G04_TB001</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="0" t="inlineStr">
         <is>
           <t>Implement backend harness to replay a small group backtest and assert that executed trades obey risk_config and costs_config (position size, maxPositionSizePct, allowShortSelling, MIS/CNC rules).</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>New pytest module comparing simulated portfolio state vs expectations for synthetic price data.</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>New tests ensure group trades honour risk_config and MIS/CNC rules.</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="0" t="inlineStr">
         <is>
           <t>S12</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="0" t="inlineStr">
         <is>
           <t>G04</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="0" t="inlineStr">
         <is>
           <t>Group BT validation: trade correctness harness</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="0" t="inlineStr">
         <is>
           <t>S12_G04_TB002</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="0" t="inlineStr">
         <is>
           <t>Add regression tests that compare group BT results (e.g., BSE-only vs group including BSE) under capital-aware routing to detect accidental changes in allocation behaviour.</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Use fixed synthetic scenarios to verify routing decisions and PnL breakdowns.</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>Regression harness compares single-stock vs group BT behaviour under routing.</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="412">
   <si>
     <t xml:space="preserve">sprint#</t>
   </si>
@@ -1217,6 +1217,48 @@
   </si>
   <si>
     <t xml:space="preserve">Reuse Backtest Detail visual patterns where it makes sense.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Management UI v2 – professional layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13_G05_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refine portfolio_management_prd.md into a first-pass professional UI spec for Portfolio Management, covering Portfolio List, Portfolio Detail tabs (Overview, Settings, Backtests, Trades &amp; Holdings, Analytics), and Portfolio Comparison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture wireframes and interaction notes for a pro-grade PM tool: universe, strategies, risk profile, rebalancing controls, portfolio-level backtests, analytics, and comparison flows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13_G05_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement redesigned Portfolio List page in the web UI using Material-UI: search + filter bar, compact KPI chips, and a DataGrid-based portfolio table with actions (View, Run BT), wired to /api/portfolios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep sidebar clean; all filters and table live in the main content area. Use pro-style density and chips for strategies and status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13_G05_TF003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement redesigned Portfolio Detail shell with tabs for Overview, Settings, Backtests, Trades &amp; Holdings, and Analytics, following the new wireframes and reusing Backtests detail visual patterns where possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on first-pass layout and routing; charts/tables can use stub or existing components backed by /api/portfolios/{id} and /api/portfolios/{id}/backtests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13_G05_TF004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Portfolio Comparison view that lets users select multiple portfolios and compare equity curves and headline metrics (CAGR, max drawdown, Sharpe, capital utilisation) against a benchmark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuse existing chart components where practical; navigation entry under Portfolios and deep-link from Portfolio Detail.</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1358,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1612,10 +1654,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E105" activeCellId="0" sqref="E105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2809,7 +2851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
@@ -2832,7 +2874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>164</v>
       </c>
@@ -2855,7 +2897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>164</v>
       </c>
@@ -2881,7 +2923,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>196</v>
       </c>
@@ -2904,7 +2946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>196</v>
       </c>
@@ -2927,7 +2969,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>196</v>
       </c>
@@ -2950,7 +2992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>208</v>
       </c>
@@ -2973,7 +3015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>208</v>
       </c>
@@ -2996,7 +3038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>208</v>
       </c>
@@ -3019,7 +3061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>208</v>
       </c>
@@ -3042,7 +3084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>208</v>
       </c>
@@ -3065,7 +3107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>208</v>
       </c>
@@ -3088,7 +3130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>208</v>
       </c>
@@ -3111,7 +3153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>208</v>
       </c>
@@ -3134,7 +3176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>208</v>
       </c>
@@ -3157,7 +3199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>208</v>
       </c>
@@ -3180,7 +3222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>208</v>
       </c>
@@ -3203,7 +3245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>208</v>
       </c>
@@ -3226,7 +3268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>208</v>
       </c>
@@ -3249,7 +3291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>253</v>
       </c>
@@ -3272,7 +3314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>253</v>
       </c>
@@ -3295,7 +3337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>253</v>
       </c>
@@ -3318,7 +3360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>253</v>
       </c>
@@ -3341,7 +3383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>253</v>
       </c>
@@ -3364,7 +3406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>253</v>
       </c>
@@ -3387,7 +3429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>253</v>
       </c>
@@ -3410,7 +3452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>253</v>
       </c>
@@ -3433,7 +3475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>253</v>
       </c>
@@ -3456,7 +3498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>253</v>
       </c>
@@ -3479,7 +3521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>253</v>
       </c>
@@ -3502,7 +3544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>253</v>
       </c>
@@ -3525,7 +3567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>294</v>
       </c>
@@ -3548,7 +3590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>294</v>
       </c>
@@ -3571,7 +3613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>294</v>
       </c>
@@ -3594,7 +3636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>294</v>
       </c>
@@ -3617,7 +3659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>294</v>
       </c>
@@ -3640,7 +3682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>294</v>
       </c>
@@ -3663,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>316</v>
       </c>
@@ -3687,7 +3729,7 @@
       </c>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>316</v>
       </c>
@@ -3711,7 +3753,7 @@
       </c>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
         <v>316</v>
       </c>
@@ -3735,7 +3777,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>316</v>
       </c>
@@ -3759,7 +3801,7 @@
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>316</v>
       </c>
@@ -3783,7 +3825,7 @@
       </c>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>316</v>
       </c>
@@ -3807,7 +3849,7 @@
       </c>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
         <v>316</v>
       </c>
@@ -3831,7 +3873,7 @@
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>316</v>
       </c>
@@ -3855,7 +3897,7 @@
       </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>345</v>
       </c>
@@ -3875,10 +3917,10 @@
         <v>349</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>345</v>
       </c>
@@ -3898,10 +3940,10 @@
         <v>352</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>345</v>
       </c>
@@ -3921,10 +3963,10 @@
         <v>355</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>345</v>
       </c>
@@ -3944,10 +3986,10 @@
         <v>358</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>345</v>
       </c>
@@ -3967,10 +4009,10 @@
         <v>362</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>345</v>
       </c>
@@ -3990,10 +4032,10 @@
         <v>365</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>345</v>
       </c>
@@ -4013,10 +4055,10 @@
         <v>368</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>345</v>
       </c>
@@ -4036,10 +4078,10 @@
         <v>371</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>345</v>
       </c>
@@ -4059,10 +4101,10 @@
         <v>375</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>345</v>
       </c>
@@ -4082,10 +4124,10 @@
         <v>378</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>345</v>
       </c>
@@ -4105,10 +4147,10 @@
         <v>381</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>345</v>
       </c>
@@ -4128,10 +4170,10 @@
         <v>384</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>345</v>
       </c>
@@ -4151,10 +4193,10 @@
         <v>388</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>345</v>
       </c>
@@ -4174,10 +4216,10 @@
         <v>391</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>345</v>
       </c>
@@ -4197,10 +4239,10 @@
         <v>394</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>345</v>
       </c>
@@ -4220,6 +4262,98 @@
         <v>397</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>204</v>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="515">
   <si>
     <t xml:space="preserve">sprint#</t>
   </si>
@@ -1436,6 +1436,138 @@
   </si>
   <si>
     <t xml:space="preserve">UI polish for Groups tab + selectors to align typography, spacing, helper text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor Data &amp; Risk Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G01_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend backend/app/models.py with fundamentals_snapshot, factor_exposures, risk_model, covariance_matrices tables as per PRD_Factor_Portfolio_v1/11_Data_Models_and_Schema.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G01_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement FactorService in backend/app/services.py to compute and persist Value, Quality, Momentum, Low-Vol, Size exposures and composite scores using OHLCV + fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G01_TB003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement RiskModelService in backend/app/services.py to compute rolling volatilities, betas vs benchmark, and Ledoit–Wolf covariance matrices; persist in risk_model and covariance_matrices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G01_TB004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expose Factor Data API endpoints (/api/v1/factors/exposures, /fundamentals, /risk, /covariance) as defined in PRD_Factor_Portfolio_v1/12_APIs_and_Service_Contracts.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor Screener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G02_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement ScreenerService in backend/app/services.py to apply filter + ranking rules over fundamentals_snapshot and factor_exposures, returning ranked symbol lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G02_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add /api/v1/screener/run and /api/v1/groups/create_from_screener endpoints; integrate with existing StockGroup/StockGroupMember models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G02_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Factor Screener UI in frontend: new tab or panel under StocksPage with filter builder, ranking configuration, and results table matching 08_Factor_Screener_UI.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G02_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire "Save as Group" flow from Screener results into existing Groups infrastructure and redirect to Group detail editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Optimizer &amp; Constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G03_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement OptimizerService in backend/app/services.py with MinVar, MaxSharpe, Risk Parity, HRP, CVaR optimizers and a dispatcher based on optimizer_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G03_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend Portfolio model or add PortfolioConstraints store to persist constraint settings (min/max weight, sector caps, factor targets, max beta, turnover_limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G03_TB003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add /api/v1/portfolio/optimize and /api/v1/portfolio/save_weights endpoints, returning weights + risk + factor exposures + diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G03_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update PortfoliosPage and PortfolioDetailPage to add "Construction" panel with optimizer selector, constraints panel, and "Run Optimization" button per 09_Portfolio_Construction_UI.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G03_TF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement weight preview table and allocation charts (sector pie, factor radar, risk summary cards) on PortfolioDetailPage after optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Backtesting Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G04_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend portfolio_service.py and backtest_service.py to support factor-optimized portfolios rebalancing on schedule: at each rebalance date, fetch historical factors &amp; covariances, run OptimizerService, apply turnover constraints, and simulate trades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G04_TB002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persist portfolio_weights per rebalance date, and factor/sector exposures per date as described in 11_Data_Models_and_Schema.md (backtest_factor_exposures, backtest_sector_exposures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G04_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update BacktestsPage and Portfolio backtest views to distinguish between "strategy-based backtests" and "factor-optimized portfolio backtests" and to surface additional portfolio metrics (volatility, Sharpe, beta, CVaR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analytics &amp; Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G05_TB001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement AnalyticsService helpers to compute factor exposure time-series, sector allocations, and risk metrics per backtest, and expose them via /api/v1/backtest/factor_exposures and /api/v1/backtest/sector_exposures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G05_TF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update frontend analytics components (portfolio detail/backtest results) to plot factor exposure over time and sector allocation charts as per 13_Wireframes.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16_G05_TD001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add PRD_Factor_Portfolio_v1 folder under docs/ with Files 01–15, and patch portfolio_management_prd.md and sigmaqlab_prd.md with cross-references between strategy-based and factor-based portfolio engines</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,6 +1604,14 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1525,16 +1665,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1827,10 +1979,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G134" activeCellId="0" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4913,6 +5065,386 @@
         <v>14</v>
       </c>
     </row>
+    <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H133"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -5614,7 +5614,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H140" s="0" t="inlineStr">
         <is>
           <t>Added Factor Screener tab on StocksPage with filter builder, ranking config, and results table.</t>
         </is>
@@ -5651,7 +5651,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H141" s="0" t="inlineStr">
         <is>
           <t>Wired Save as Group flow from screener results into StockGroup infrastructure and deep-linked Groups tab.</t>
         </is>
@@ -5685,7 +5685,12 @@
       </c>
       <c r="G142" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Added OptimizerService with MinVar/MaxSharpe/Risk Parity/HRP/CVaR modes and dispatcher.</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5722,12 @@
       </c>
       <c r="G143" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Added portfolio_constraints and portfolio_weights models (with Alembic wiring) to persist optimisation settings and weights.</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5759,12 @@
       </c>
       <c r="G144" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Exposed /api/v1/portfolio/optimize and /api/v1/portfolio/save_weights endpoints returning weights, risk, exposures, and diagnostics.</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5796,12 @@
       </c>
       <c r="G145" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Extended PortfolioDetailPage with Construction tab: optimizer selector, constraints inputs, and Run Optimisation button.</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5833,12 @@
       </c>
       <c r="G146" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Added weights preview table, sector allocation pie chart, factor radar chart, and risk summary cards after optimisation.</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -5688,7 +5688,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" s="0" t="inlineStr">
         <is>
           <t>Added OptimizerService with MinVar/MaxSharpe/Risk Parity/HRP/CVaR modes and dispatcher.</t>
         </is>
@@ -5725,7 +5725,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H143" s="0" t="inlineStr">
         <is>
           <t>Added portfolio_constraints and portfolio_weights models (with Alembic wiring) to persist optimisation settings and weights.</t>
         </is>
@@ -5762,7 +5762,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H144" s="0" t="inlineStr">
         <is>
           <t>Exposed /api/v1/portfolio/optimize and /api/v1/portfolio/save_weights endpoints returning weights, risk, exposures, and diagnostics.</t>
         </is>
@@ -5799,7 +5799,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H145" s="0" t="inlineStr">
         <is>
           <t>Extended PortfolioDetailPage with Construction tab: optimizer selector, constraints inputs, and Run Optimisation button.</t>
         </is>
@@ -5836,7 +5836,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H146" s="0" t="inlineStr">
         <is>
           <t>Added weights preview table, sector allocation pie chart, factor radar chart, and risk summary cards after optimisation.</t>
         </is>
@@ -5870,7 +5870,12 @@
       </c>
       <c r="G147" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Integrated OptimizerService-driven scheduled rebalancing into portfolio backtests.</t>
         </is>
       </c>
     </row>
@@ -5902,7 +5907,12 @@
       </c>
       <c r="G148" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Persisted per-backtest factor and sector exposures via backtest_factor_exposures and backtest_sector_exposures.</t>
         </is>
       </c>
     </row>
@@ -5934,7 +5944,12 @@
       </c>
       <c r="G149" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Extended portfolio backtest views to surface volatility, Sharpe, beta and CVaR metrics.</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -5873,7 +5873,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H147" s="0" t="inlineStr">
         <is>
           <t>Integrated OptimizerService-driven scheduled rebalancing into portfolio backtests.</t>
         </is>
@@ -5910,7 +5910,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H148" s="0" t="inlineStr">
         <is>
           <t>Persisted per-backtest factor and sector exposures via backtest_factor_exposures and backtest_sector_exposures.</t>
         </is>
@@ -5947,7 +5947,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H149" s="0" t="inlineStr">
         <is>
           <t>Extended portfolio backtest views to surface volatility, Sharpe, beta and CVaR metrics.</t>
         </is>
@@ -5981,7 +5981,12 @@
       </c>
       <c r="G150" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Implemented AnalyticsService with factor/sector time series and /api/backtests/{id}/factor-exposures &amp; sector-exposures endpoints.</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6018,12 @@
       </c>
       <c r="G151" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Updated portfolio analytics tab to plot factor tilt over time and latest sector allocation pie based on analytics endpoints.</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6055,12 @@
       </c>
       <c r="G152" s="6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>PRD_Factor_Portfolio_v1 docs (Files 01–15) are present; cross-reference updates can be iterated alongside future documentation passes.</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G134" activeCellId="0" sqref="G134"/>
@@ -5984,7 +5984,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" s="0" t="inlineStr">
         <is>
           <t>Implemented AnalyticsService with factor/sector time series and /api/backtests/{id}/factor-exposures &amp; sector-exposures endpoints.</t>
         </is>
@@ -6021,7 +6021,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H151" s="0" t="inlineStr">
         <is>
           <t>Updated portfolio analytics tab to plot factor tilt over time and latest sector allocation pie based on analytics endpoints.</t>
         </is>
@@ -6058,9 +6058,120 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H152" s="0" t="inlineStr">
         <is>
           <t>PRD_Factor_Portfolio_v1 docs (Files 01–15) are present; cross-reference updates can be iterated alongside future documentation passes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>Analytics &amp; Docs</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t>S16_G05_TB002</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
+        <is>
+          <t>Implement unified fundamentals ingestion per 16_Unified_Ingestion_Design_v2.md: FundamentalsSnapshotRun lineage table, SymbolResolverService, FundamentalsIngestionService.ingest_screener_csv(), and a manual script that reads backend/data/fundamentals/*.csv and upserts FundamentalsSnapshot.</t>
+        </is>
+      </c>
+      <c r="G153" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Implemented FundamentalsIngestionService with Screener CSV upsert, FundamentalsSnapshotRun lineage table, and CLI script backend/scripts/ingest_screener_fundamentals.py reading backend/data/fundamentals/*.csv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>Analytics &amp; Docs</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>S16_G05_TB003</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>Implement FactorRiskRebuildService and /api/v1/factors/rebuild endpoint (and optional CLI wrapper) to recompute factor_exposures, risk_model and covariance_matrices for a universe/as_of_date, including basic price-coverage diagnostics.</t>
+        </is>
+      </c>
+      <c r="G154" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Implemented FactorRiskRebuildService and /api/v1/factors/rebuild endpoint to recompute factor_exposures, risk_model, and covariance_matrices for a universe/as_of_date, with basic price coverage diagnostics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>Analytics &amp; Docs</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t>S16_G05_TD002</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
+        <is>
+          <t>Finalize and maintain unified ingestion docs (16_Unified_Ingestion_Design.md + 16_Unified_Ingestion_Design_v2.md) so they stay aligned with the implemented fundamentals ingestion and factor/risk rebuild flows.</t>
+        </is>
+      </c>
+      <c r="G155" s="0" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Finalised unified ingestion documentation (Files 16 and 16_v2) to match the implemented fundamentals ingestion and factor/risk rebuild flows.</t>
         </is>
       </c>
     </row>

--- a/docs/qlab_sprint_tasks_codex.xlsx
+++ b/docs/qlab_sprint_tasks_codex.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G134" activeCellId="0" sqref="G134"/>
@@ -6095,7 +6095,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H153" s="0" t="inlineStr">
         <is>
           <t>Implemented FundamentalsIngestionService with Screener CSV upsert, FundamentalsSnapshotRun lineage table, and CLI script backend/scripts/ingest_screener_fundamentals.py reading backend/data/fundamentals/*.csv.</t>
         </is>
@@ -6132,7 +6132,7 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H154" s="0" t="inlineStr">
         <is>
           <t>Implemented FactorRiskRebuildService and /api/v1/factors/rebuild endpoint to recompute factor_exposures, risk_model, and covariance_matrices for a universe/as_of_date, with basic price coverage diagnostics.</t>
         </is>
@@ -6169,9 +6169,157 @@
           <t>implemented</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H155" s="0" t="inlineStr">
         <is>
           <t>Finalised unified ingestion documentation (Files 16 and 16_v2) to match the implemented fundamentals ingestion and factor/risk rebuild flows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Portfolio Optimizer &amp; Constructor</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>S16_G03_TB00X</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Add configurable risk-free rate for portfolios and use it for Sharpe/Max-Sharpe calculations (construction + backtests).</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Planned: risk_free_rate stored in portfolio risk profile and surfaced on Construction tab.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Portfolio Optimizer &amp; Constructor</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>S16_G03_TB00Y</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Add optimisation risk-profile presets (Conservative/Moderate/Aggressive) that map to sensible constraint defaults for Indian equities.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Planned: presets populate min/max weight, target volatility, max beta, and turnover limit.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Portfolio Optimizer &amp; Constructor</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>S16_G03_TF00X</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Show a small equity-curve preview for the optimised portfolio (run a short portfolio backtest behind the Construction tab).</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Planned: reuse PortfolioService to simulate equity using current constraints and rebalance policy.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Portfolio Optimizer &amp; Constructor</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>S16_G03_TB00Z</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Add advanced factor/risk lookback presets (Short/Medium/Long) and plumb them into factor and risk model services.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Planned: expose as advanced options while keeping default as current 180–252 day lookbacks.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>planned</t>
         </is>
       </c>
     </row>
